--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_22.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1165634.079999583</v>
+        <v>1185419.003752165</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1688887.019951506</v>
+        <v>1409000.697294979</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7011176.162754118</v>
+        <v>7060550.372378132</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9111613.922570534</v>
+        <v>9100925.307603894</v>
       </c>
     </row>
     <row r="11">
@@ -671,7 +671,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>5.791117132838708</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>156.127162662147</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>278.9270494795691</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>284.5615160058696</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>92.00803688215818</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,13 +1066,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>52.10844059186253</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>323.9918595228957</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>164.8783252168516</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,16 +1297,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>31.25960649589825</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>62.88528692724405</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1373,19 +1373,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>84.95149223441572</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>142.6680224348402</v>
       </c>
       <c r="G14" t="n">
-        <v>323.9918595228957</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1698,13 +1698,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664345</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958667</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183509</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815133</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>22.79825004194882</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1859,10 +1859,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>315.0408840752156</v>
+        <v>206.6496618758914</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>100.8649953769195</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>30.13733409124256</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>48.9638942982429</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>206.649661875891</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>86.19685938994847</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>79.28604738508824</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>147.44635744916</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>122.3537056241976</v>
+        <v>261.2529923239956</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2333,7 +2333,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H23" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>118.4960408938906</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2375,10 +2375,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>91.87120646839789</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>137.7488816754978</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2555,10 +2555,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>202.2717265307078</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H26" t="n">
-        <v>150.317843581292</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.1547862223006</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>94.20795713667604</v>
+        <v>165.0140383262325</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2764,13 +2764,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>283.2471341237255</v>
+        <v>240.8497465180887</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2807,7 +2807,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2846,13 +2846,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2950,19 +2950,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>16.15489130216382</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S31" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>22.79825004194606</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3029,16 +3029,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>202.2717265307073</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>412.9169039459368</v>
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.19080288195407</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3193,13 +3193,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>38.52442534210623</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S34" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U34" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>22.79825004194663</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3275,13 +3275,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>238.2226449737505</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H35" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>118.4960408938906</v>
@@ -3314,19 +3314,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>43.15905630575904</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.0140383262325</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>225.5650375952924</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>28.19788340312222</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3518,7 +3518,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H38" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,16 +3554,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>283.2471341237255</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>145.5003680194886</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>129.1731816677915</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>223.3729047207587</v>
+        <v>165.0140383262326</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>372.5327915267483</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3800,10 +3800,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>339.0399185806816</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>107.8958135517924</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3904,19 +3904,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3958,13 +3958,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>112.3693941149763</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3983,13 +3983,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>44.78053305661442</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>199.6983209848058</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4141,10 +4141,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>138.3372698980491</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.9207765545704</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U46" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>47.6660551518757</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1995.909162857192</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.94664591678</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2636.270788283222</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2382.509002921313</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2382.509002921313</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2382.509002921313</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>2382.509002921313</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y2" t="n">
-        <v>2382.509002921313</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1865.381229508782</v>
+        <v>335.6874762441716</v>
       </c>
       <c r="C5" t="n">
-        <v>1496.41871256837</v>
+        <v>335.6874762441716</v>
       </c>
       <c r="D5" t="n">
-        <v>1138.15301396162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E5" t="n">
-        <v>752.3647613633757</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F5" t="n">
-        <v>341.3788565737681</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y5" t="n">
-        <v>2251.981069572904</v>
+        <v>722.2873163082934</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064342</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E7" t="n">
-        <v>580.2158906240411</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F7" t="n">
-        <v>433.3259431261307</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>264.3261428644631</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>106.5777702969933</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.94416071721</v>
+        <v>422.9054987607762</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776798</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D8" t="n">
-        <v>1177.981643776798</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E8" t="n">
-        <v>792.1933911785536</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F8" t="n">
-        <v>381.2074863889461</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036446</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,7 +4817,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2256.941971675474</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>1925.879084331904</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>1573.11042906179</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1199.64467080071</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>809.505338824898</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4887,7 +4887,7 @@
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M9" t="n">
         <v>1237.953133915166</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="C10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="D10" t="n">
-        <v>548.5954256477205</v>
+        <v>548.5954256477207</v>
       </c>
       <c r="E10" t="n">
-        <v>548.5954256477205</v>
+        <v>400.6823320653276</v>
       </c>
       <c r="F10" t="n">
-        <v>517.0200655508536</v>
+        <v>253.7923845674173</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>253.7923845674173</v>
       </c>
       <c r="H10" t="n">
         <v>190.2718927217162</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600565</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1194.175505447095</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C11" t="n">
-        <v>825.2129885066836</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D11" t="n">
-        <v>466.9472898999331</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E11" t="n">
-        <v>466.9472898999331</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F11" t="n">
-        <v>466.9472898999331</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G11" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K11" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W11" t="n">
-        <v>2344.380435748109</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X11" t="n">
-        <v>1970.914677487029</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y11" t="n">
-        <v>1580.775345511217</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="12">
@@ -5094,73 +5094,73 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5206,43 +5206,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>53.94298182036446</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V13" t="n">
-        <v>53.94298182036446</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036446</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1546.94416071721</v>
+        <v>1370.766673031379</v>
       </c>
       <c r="C14" t="n">
-        <v>1177.981643776798</v>
+        <v>1001.804156090968</v>
       </c>
       <c r="D14" t="n">
-        <v>1177.981643776798</v>
+        <v>1001.804156090968</v>
       </c>
       <c r="E14" t="n">
-        <v>792.1933911785536</v>
+        <v>616.0159034927233</v>
       </c>
       <c r="F14" t="n">
-        <v>381.2074863889461</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>75.17723181374775</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>318.8683807588026</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>871.6816390050018</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
-        <v>1058.381051830409</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1685.688719890256</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
-        <v>2232.849924657333</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2662.164970996628</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X14" t="n">
-        <v>2323.683332757143</v>
+        <v>2147.505845071313</v>
       </c>
       <c r="Y14" t="n">
-        <v>1933.544000781331</v>
+        <v>1757.366513095501</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>967.3646662469702</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>792.9116369658432</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>643.9772273045919</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>484.7397722991365</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>338.2052143260215</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>200.7638166852434</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>99.84783883004798</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>172.6022336772601</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>502.03063798307</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>639.260235998764</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1279.805585465869</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1478.462327118533</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>1981.606814720089</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2405.574583200926</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2636.288039261394</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2615.176139663581</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2465.709350526216</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2268.720054686303</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
-        <v>2040.581267197469</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1805.429158965726</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
-        <v>1551.191802237525</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1343.340302031992</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>1135.580003267038</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
-        <v>154.9909114159743</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>339.8239063167927</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>545.0935070360306</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>750.9168718721348</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>925.0117672607337</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>1050.459343859349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>1053.877663279709</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>1053.877663279709</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>846.4373785321145</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>620.8081818444795</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U16" t="n">
-        <v>331.6560054221592</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V16" t="n">
-        <v>76.97151721627236</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2094.732337045837</v>
+        <v>1865.553283416327</v>
       </c>
       <c r="C17" t="n">
-        <v>1725.769820105425</v>
+        <v>1496.590766475915</v>
       </c>
       <c r="D17" t="n">
-        <v>1725.769820105425</v>
+        <v>1496.590766475915</v>
       </c>
       <c r="E17" t="n">
-        <v>1339.981567507181</v>
+        <v>1110.802513877671</v>
       </c>
       <c r="F17" t="n">
-        <v>928.9956627175731</v>
+        <v>699.8166090880632</v>
       </c>
       <c r="G17" t="n">
-        <v>511.9078809540005</v>
+        <v>282.7288273244906</v>
       </c>
       <c r="H17" t="n">
-        <v>193.68476572651</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I17" t="n">
-        <v>73.99179512662049</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J17" t="n">
-        <v>262.6316941403563</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K17" t="n">
-        <v>666.0988071604008</v>
+        <v>666.0988071604011</v>
       </c>
       <c r="L17" t="n">
         <v>1218.912065406599</v>
       </c>
       <c r="M17" t="n">
-        <v>1850.629876389909</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N17" t="n">
         <v>2477.937544449755</v>
@@ -5549,16 +5549,16 @@
         <v>3699.589756331025</v>
       </c>
       <c r="V17" t="n">
-        <v>3597.705922616964</v>
+        <v>3368.526868987454</v>
       </c>
       <c r="W17" t="n">
-        <v>3244.93726734685</v>
+        <v>3015.75821371734</v>
       </c>
       <c r="X17" t="n">
-        <v>2871.47150908577</v>
+        <v>2642.29245545626</v>
       </c>
       <c r="Y17" t="n">
-        <v>2481.332177109959</v>
+        <v>2252.153123480448</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4134795532265</v>
+        <v>2030.666383316601</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9604502720995</v>
+        <v>1856.213354035474</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0260406108482</v>
+        <v>1707.278944374222</v>
       </c>
       <c r="E18" t="n">
-        <v>504.7885856053927</v>
+        <v>1548.041489368767</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2540276322776</v>
+        <v>1401.506931395652</v>
       </c>
       <c r="G18" t="n">
-        <v>220.8126299914996</v>
+        <v>1264.065533754874</v>
       </c>
       <c r="H18" t="n">
-        <v>119.8966521363041</v>
+        <v>1163.149555899678</v>
       </c>
       <c r="I18" t="n">
-        <v>73.99179512662049</v>
+        <v>1117.244698889995</v>
       </c>
       <c r="J18" t="n">
-        <v>73.99179512662049</v>
+        <v>1117.244698889995</v>
       </c>
       <c r="K18" t="n">
-        <v>403.4201994324298</v>
+        <v>1446.673103195804</v>
       </c>
       <c r="L18" t="n">
-        <v>907.7817392985476</v>
+        <v>1951.034643061922</v>
       </c>
       <c r="M18" t="n">
-        <v>1548.327088765651</v>
+        <v>2591.579992529025</v>
       </c>
       <c r="N18" t="n">
-        <v>1746.983830418315</v>
+        <v>3264.785684781807</v>
       </c>
       <c r="O18" t="n">
-        <v>2296.419839171037</v>
+        <v>3424.297997450567</v>
       </c>
       <c r="P18" t="n">
-        <v>2633.599911365674</v>
+        <v>3676.852815129048</v>
       </c>
       <c r="Q18" t="n">
-        <v>2656.336852567651</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R18" t="n">
-        <v>2635.224952969837</v>
+        <v>3678.477856733211</v>
       </c>
       <c r="S18" t="n">
-        <v>2485.758163832472</v>
+        <v>3529.011067595846</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.76886799256</v>
+        <v>3332.021771755934</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.630080503725</v>
+        <v>3103.8829842671</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.477972271983</v>
+        <v>2868.730876035357</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.240615543781</v>
+        <v>2614.493519307156</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.389115338248</v>
+        <v>2406.642019101623</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.628816573294</v>
+        <v>2198.881720336669</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.99179512662049</v>
+        <v>530.0898119577554</v>
       </c>
       <c r="C19" t="n">
-        <v>73.99179512662049</v>
+        <v>530.0898119577554</v>
       </c>
       <c r="D19" t="n">
-        <v>73.99179512662049</v>
+        <v>530.0898119577554</v>
       </c>
       <c r="E19" t="n">
-        <v>73.99179512662049</v>
+        <v>530.0898119577554</v>
       </c>
       <c r="F19" t="n">
-        <v>73.99179512662049</v>
+        <v>383.199864459845</v>
       </c>
       <c r="G19" t="n">
-        <v>73.99179512662049</v>
+        <v>352.7581128525293</v>
       </c>
       <c r="H19" t="n">
-        <v>73.99179512662049</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="I19" t="n">
-        <v>73.99179512662049</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J19" t="n">
-        <v>73.99179512662049</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K19" t="n">
         <v>175.0397247222299</v>
@@ -5695,28 +5695,28 @@
         <v>1073.926476585963</v>
       </c>
       <c r="R19" t="n">
-        <v>1024.467997496828</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S19" t="n">
-        <v>817.0277127492336</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T19" t="n">
-        <v>591.3985160615985</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U19" t="n">
-        <v>591.3985160615985</v>
+        <v>784.7743001636422</v>
       </c>
       <c r="V19" t="n">
-        <v>591.3985160615985</v>
+        <v>530.0898119577554</v>
       </c>
       <c r="W19" t="n">
-        <v>301.9813460246378</v>
+        <v>530.0898119577554</v>
       </c>
       <c r="X19" t="n">
-        <v>73.99179512662049</v>
+        <v>530.0898119577554</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.99179512662049</v>
+        <v>530.0898119577554</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1656.816251218457</v>
+        <v>1975.039366445947</v>
       </c>
       <c r="C20" t="n">
-        <v>1287.853734278045</v>
+        <v>1606.076849505535</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.853734278045</v>
+        <v>1606.076849505535</v>
       </c>
       <c r="E20" t="n">
-        <v>902.0654816798005</v>
+        <v>1220.288596907291</v>
       </c>
       <c r="F20" t="n">
-        <v>491.079576890193</v>
+        <v>809.3026921176836</v>
       </c>
       <c r="G20" t="n">
-        <v>73.99179512662049</v>
+        <v>392.2149103541111</v>
       </c>
       <c r="H20" t="n">
-        <v>73.99179512662049</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I20" t="n">
-        <v>73.99179512662049</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J20" t="n">
-        <v>262.6316941403558</v>
+        <v>262.6316941403563</v>
       </c>
       <c r="K20" t="n">
-        <v>666.0988071604004</v>
+        <v>666.0988071604008</v>
       </c>
       <c r="L20" t="n">
-        <v>1218.912065406598</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M20" t="n">
         <v>1850.629876389909</v>
@@ -5777,25 +5777,25 @@
         <v>3699.589756331025</v>
       </c>
       <c r="S20" t="n">
-        <v>3699.589756331025</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T20" t="n">
-        <v>3699.589756331025</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="U20" t="n">
-        <v>3490.852724133155</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="V20" t="n">
-        <v>3159.789836789584</v>
+        <v>3212.311831484282</v>
       </c>
       <c r="W20" t="n">
-        <v>2807.02118151947</v>
+        <v>3125.244296746961</v>
       </c>
       <c r="X20" t="n">
-        <v>2433.55542325839</v>
+        <v>2751.778538485881</v>
       </c>
       <c r="Y20" t="n">
-        <v>2043.416091282578</v>
+        <v>2361.639206510069</v>
       </c>
     </row>
     <row r="21">
@@ -5817,7 +5817,7 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G21" t="n">
         <v>220.8126299914996</v>
@@ -5826,25 +5826,25 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I21" t="n">
-        <v>73.99179512662049</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J21" t="n">
-        <v>73.99179512662049</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K21" t="n">
-        <v>403.4201994324298</v>
+        <v>232.0072486300746</v>
       </c>
       <c r="L21" t="n">
-        <v>907.7817392985476</v>
+        <v>736.3687884961923</v>
       </c>
       <c r="M21" t="n">
-        <v>1548.327088765651</v>
+        <v>1376.914137963296</v>
       </c>
       <c r="N21" t="n">
-        <v>2221.532781018433</v>
+        <v>2050.119830216078</v>
       </c>
       <c r="O21" t="n">
-        <v>2381.045093687193</v>
+        <v>2209.632142884838</v>
       </c>
       <c r="P21" t="n">
         <v>2633.599911365674</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>154.0787116772147</v>
+        <v>664.2884608577054</v>
       </c>
       <c r="C22" t="n">
-        <v>73.99179512662049</v>
+        <v>495.3522779297986</v>
       </c>
       <c r="D22" t="n">
-        <v>73.99179512662049</v>
+        <v>346.4165633346875</v>
       </c>
       <c r="E22" t="n">
-        <v>73.99179512662049</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="F22" t="n">
-        <v>73.99179512662049</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="G22" t="n">
-        <v>73.99179512662049</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="H22" t="n">
-        <v>73.99179512662049</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="I22" t="n">
-        <v>73.99179512662049</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J22" t="n">
-        <v>73.99179512662049</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K22" t="n">
         <v>175.0397247222299</v>
@@ -5947,13 +5947,13 @@
         <v>1073.926476585963</v>
       </c>
       <c r="W22" t="n">
-        <v>784.5093065490018</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="X22" t="n">
-        <v>556.5197556509845</v>
+        <v>845.9369256879452</v>
       </c>
       <c r="Y22" t="n">
-        <v>335.7271765074544</v>
+        <v>845.9369256879452</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2218.32193868644</v>
+        <v>2040.401133256725</v>
       </c>
       <c r="C23" t="n">
-        <v>1849.359421746029</v>
+        <v>1671.438616316314</v>
       </c>
       <c r="D23" t="n">
-        <v>1725.769820105425</v>
+        <v>1407.546704877934</v>
       </c>
       <c r="E23" t="n">
-        <v>1339.981567507181</v>
+        <v>1021.75845227969</v>
       </c>
       <c r="F23" t="n">
-        <v>928.9956627175731</v>
+        <v>610.7725474900825</v>
       </c>
       <c r="G23" t="n">
-        <v>511.9078809540005</v>
+        <v>193.68476572651</v>
       </c>
       <c r="H23" t="n">
         <v>193.68476572651</v>
       </c>
       <c r="I23" t="n">
-        <v>73.99179512662049</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J23" t="n">
-        <v>262.6316941403562</v>
+        <v>262.6316941403563</v>
       </c>
       <c r="K23" t="n">
         <v>666.0988071604008</v>
@@ -6014,25 +6014,25 @@
         <v>3699.589756331025</v>
       </c>
       <c r="S23" t="n">
-        <v>3699.589756331025</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T23" t="n">
-        <v>3699.589756331025</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="U23" t="n">
-        <v>3699.589756331025</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="V23" t="n">
-        <v>3368.526868987454</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="W23" t="n">
-        <v>3368.526868987454</v>
+        <v>3190.606063557739</v>
       </c>
       <c r="X23" t="n">
-        <v>2995.061110726374</v>
+        <v>2817.140305296659</v>
       </c>
       <c r="Y23" t="n">
-        <v>2604.921778750562</v>
+        <v>2427.000973320847</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2030.6663833166</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C24" t="n">
-        <v>1856.213354035473</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D24" t="n">
-        <v>1707.278944374222</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E24" t="n">
-        <v>1548.041489368766</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F24" t="n">
-        <v>1401.506931395651</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G24" t="n">
-        <v>1264.065533754873</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H24" t="n">
-        <v>1163.149555899678</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I24" t="n">
-        <v>1117.244698889994</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J24" t="n">
-        <v>1117.244698889994</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K24" t="n">
-        <v>1446.673103195803</v>
+        <v>232.0072486300746</v>
       </c>
       <c r="L24" t="n">
-        <v>1850.746009288104</v>
+        <v>736.3687884961923</v>
       </c>
       <c r="M24" t="n">
-        <v>2030.243345642708</v>
+        <v>1376.914137963296</v>
       </c>
       <c r="N24" t="n">
-        <v>2703.44903789549</v>
+        <v>2050.119830216078</v>
       </c>
       <c r="O24" t="n">
-        <v>3252.885046648212</v>
+        <v>2209.632142884838</v>
       </c>
       <c r="P24" t="n">
-        <v>3676.852815129048</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q24" t="n">
-        <v>3699.589756331025</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R24" t="n">
-        <v>3678.477856733211</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S24" t="n">
-        <v>3529.011067595846</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T24" t="n">
-        <v>3332.021771755934</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U24" t="n">
-        <v>3103.882984267099</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V24" t="n">
-        <v>2868.730876035357</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W24" t="n">
-        <v>2614.493519307155</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X24" t="n">
-        <v>2406.642019101622</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y24" t="n">
-        <v>2198.881720336668</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2868.591257799589</v>
+        <v>2961.390456252517</v>
       </c>
       <c r="C25" t="n">
-        <v>2699.655074871682</v>
+        <v>2792.45427332461</v>
       </c>
       <c r="D25" t="n">
-        <v>2699.655074871682</v>
+        <v>2699.655074871683</v>
       </c>
       <c r="E25" t="n">
-        <v>2699.655074871682</v>
+        <v>2699.655074871683</v>
       </c>
       <c r="F25" t="n">
-        <v>2699.655074871682</v>
+        <v>2699.655074871683</v>
       </c>
       <c r="G25" t="n">
-        <v>2699.655074871682</v>
+        <v>2699.655074871683</v>
       </c>
       <c r="H25" t="n">
-        <v>2699.655074871682</v>
+        <v>2699.655074871683</v>
       </c>
       <c r="I25" t="n">
-        <v>2699.655074871682</v>
+        <v>2699.655074871683</v>
       </c>
       <c r="J25" t="n">
-        <v>2699.655074871682</v>
+        <v>2699.655074871683</v>
       </c>
       <c r="K25" t="n">
         <v>2800.703004467292</v>
@@ -6154,7 +6154,7 @@
         <v>2985.53599936811</v>
       </c>
       <c r="M25" t="n">
-        <v>3190.805600087347</v>
+        <v>3190.805600087348</v>
       </c>
       <c r="N25" t="n">
         <v>3396.628964923451</v>
@@ -6187,10 +6187,10 @@
         <v>3410.172586294064</v>
       </c>
       <c r="X25" t="n">
-        <v>3271.032301773359</v>
+        <v>3182.183035396047</v>
       </c>
       <c r="Y25" t="n">
-        <v>3050.239722629829</v>
+        <v>2961.390456252517</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1749.830373699303</v>
+        <v>1611.861580161478</v>
       </c>
       <c r="C26" t="n">
-        <v>1380.867856758892</v>
+        <v>1407.546704877934</v>
       </c>
       <c r="D26" t="n">
-        <v>1022.602158152141</v>
+        <v>1407.546704877934</v>
       </c>
       <c r="E26" t="n">
-        <v>636.8139055538968</v>
+        <v>1021.75845227969</v>
       </c>
       <c r="F26" t="n">
-        <v>225.8280007642892</v>
+        <v>610.7725474900825</v>
       </c>
       <c r="G26" t="n">
-        <v>225.8280007642892</v>
+        <v>193.68476572651</v>
       </c>
       <c r="H26" t="n">
-        <v>73.9917951266205</v>
+        <v>193.68476572651</v>
       </c>
       <c r="I26" t="n">
         <v>73.9917951266205</v>
       </c>
       <c r="J26" t="n">
-        <v>262.6316941403561</v>
+        <v>262.6316941403562</v>
       </c>
       <c r="K26" t="n">
         <v>666.0988071604008</v>
@@ -6233,13 +6233,13 @@
         <v>1218.912065406599</v>
       </c>
       <c r="M26" t="n">
-        <v>1850.62987638991</v>
+        <v>1850.629876389909</v>
       </c>
       <c r="N26" t="n">
         <v>2477.937544449755</v>
       </c>
       <c r="O26" t="n">
-        <v>3025.098749216832</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P26" t="n">
         <v>3454.413795556125</v>
@@ -6254,22 +6254,22 @@
         <v>3699.589756331025</v>
       </c>
       <c r="T26" t="n">
-        <v>3484.789894598736</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="U26" t="n">
-        <v>3231.098191343887</v>
+        <v>3445.898053076176</v>
       </c>
       <c r="V26" t="n">
-        <v>2900.035304000317</v>
+        <v>3114.835165732605</v>
       </c>
       <c r="W26" t="n">
-        <v>2900.035304000317</v>
+        <v>2762.066510462491</v>
       </c>
       <c r="X26" t="n">
-        <v>2526.569545739237</v>
+        <v>2388.600752201411</v>
       </c>
       <c r="Y26" t="n">
-        <v>2136.430213763425</v>
+        <v>1998.461420225599</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6306,19 @@
         <v>73.9917951266205</v>
       </c>
       <c r="K27" t="n">
-        <v>141.599614789977</v>
+        <v>403.4201994324298</v>
       </c>
       <c r="L27" t="n">
-        <v>346.4450924122302</v>
+        <v>907.7817392985476</v>
       </c>
       <c r="M27" t="n">
-        <v>986.990441879334</v>
+        <v>1548.327088765651</v>
       </c>
       <c r="N27" t="n">
-        <v>1660.196134132116</v>
+        <v>2221.532781018433</v>
       </c>
       <c r="O27" t="n">
-        <v>2209.632142884838</v>
+        <v>2381.045093687193</v>
       </c>
       <c r="P27" t="n">
         <v>2633.599911365674</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>242.9279780545274</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="C28" t="n">
         <v>73.9917951266205</v>
@@ -6412,22 +6412,22 @@
         <v>1073.926476585963</v>
       </c>
       <c r="T28" t="n">
-        <v>848.2972798983274</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U28" t="n">
-        <v>848.2972798983274</v>
+        <v>784.7743001636422</v>
       </c>
       <c r="V28" t="n">
-        <v>848.2972798983274</v>
+        <v>530.0898119577554</v>
       </c>
       <c r="W28" t="n">
-        <v>558.8801098613667</v>
+        <v>240.6726419207948</v>
       </c>
       <c r="X28" t="n">
-        <v>558.8801098613667</v>
+        <v>240.6726419207948</v>
       </c>
       <c r="Y28" t="n">
-        <v>338.0875307178366</v>
+        <v>240.6726419207948</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1942.924467505048</v>
+        <v>2218.321938686441</v>
       </c>
       <c r="C29" t="n">
-        <v>1573.961950564636</v>
+        <v>1849.359421746029</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.853734278045</v>
+        <v>1606.076849505535</v>
       </c>
       <c r="E29" t="n">
-        <v>902.0654816798005</v>
+        <v>1220.288596907291</v>
       </c>
       <c r="F29" t="n">
-        <v>491.079576890193</v>
+        <v>809.3026921176836</v>
       </c>
       <c r="G29" t="n">
-        <v>73.99179512662049</v>
+        <v>392.2149103541111</v>
       </c>
       <c r="H29" t="n">
-        <v>73.99179512662049</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I29" t="n">
-        <v>73.99179512662049</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J29" t="n">
-        <v>262.6316941403562</v>
+        <v>262.6316941403559</v>
       </c>
       <c r="K29" t="n">
-        <v>666.0988071604008</v>
+        <v>666.0988071604006</v>
       </c>
       <c r="L29" t="n">
         <v>1218.912065406599</v>
@@ -6494,19 +6494,19 @@
         <v>3699.589756331025</v>
       </c>
       <c r="U29" t="n">
-        <v>3445.898053076176</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="V29" t="n">
-        <v>3445.898053076176</v>
+        <v>3368.526868987454</v>
       </c>
       <c r="W29" t="n">
-        <v>3093.129397806061</v>
+        <v>3368.526868987454</v>
       </c>
       <c r="X29" t="n">
-        <v>2719.663639544981</v>
+        <v>2995.061110726374</v>
       </c>
       <c r="Y29" t="n">
-        <v>2329.52430756917</v>
+        <v>2604.921778750563</v>
       </c>
     </row>
     <row r="30">
@@ -6528,7 +6528,7 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G30" t="n">
         <v>220.8126299914996</v>
@@ -6537,25 +6537,25 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I30" t="n">
-        <v>73.99179512662049</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J30" t="n">
-        <v>73.99179512662049</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K30" t="n">
-        <v>403.4201994324298</v>
+        <v>232.0072486300746</v>
       </c>
       <c r="L30" t="n">
-        <v>907.7817392985476</v>
+        <v>736.3687884961923</v>
       </c>
       <c r="M30" t="n">
-        <v>1548.327088765651</v>
+        <v>1376.914137963296</v>
       </c>
       <c r="N30" t="n">
-        <v>1746.983830418315</v>
+        <v>2050.119830216078</v>
       </c>
       <c r="O30" t="n">
-        <v>2296.419839171037</v>
+        <v>2209.632142884838</v>
       </c>
       <c r="P30" t="n">
         <v>2633.599911365674</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>73.99179512662049</v>
+        <v>3348.319215906898</v>
       </c>
       <c r="C31" t="n">
-        <v>73.99179512662049</v>
+        <v>3179.383032978991</v>
       </c>
       <c r="D31" t="n">
-        <v>73.99179512662049</v>
+        <v>3163.064960956603</v>
       </c>
       <c r="E31" t="n">
-        <v>73.99179512662049</v>
+        <v>3015.15186737421</v>
       </c>
       <c r="F31" t="n">
-        <v>73.99179512662049</v>
+        <v>2868.2619198763</v>
       </c>
       <c r="G31" t="n">
-        <v>73.99179512662049</v>
+        <v>2699.655074871683</v>
       </c>
       <c r="H31" t="n">
-        <v>73.99179512662049</v>
+        <v>2699.655074871683</v>
       </c>
       <c r="I31" t="n">
-        <v>73.99179512662049</v>
+        <v>2699.655074871683</v>
       </c>
       <c r="J31" t="n">
-        <v>73.99179512662049</v>
+        <v>2699.655074871683</v>
       </c>
       <c r="K31" t="n">
-        <v>175.0397247222299</v>
+        <v>2800.703004467292</v>
       </c>
       <c r="L31" t="n">
-        <v>359.8727196230478</v>
+        <v>2985.53599936811</v>
       </c>
       <c r="M31" t="n">
-        <v>565.1423203422853</v>
+        <v>3190.805600087348</v>
       </c>
       <c r="N31" t="n">
-        <v>770.9656851783891</v>
+        <v>3396.628964923451</v>
       </c>
       <c r="O31" t="n">
-        <v>945.0605805669875</v>
+        <v>3570.72386031205</v>
       </c>
       <c r="P31" t="n">
-        <v>1070.508157165603</v>
+        <v>3696.171436910665</v>
       </c>
       <c r="Q31" t="n">
-        <v>1073.926476585963</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R31" t="n">
-        <v>1073.926476585963</v>
+        <v>3569.111795050428</v>
       </c>
       <c r="S31" t="n">
-        <v>866.4861918383679</v>
+        <v>3569.111795050428</v>
       </c>
       <c r="T31" t="n">
-        <v>640.8569951507327</v>
+        <v>3569.111795050428</v>
       </c>
       <c r="U31" t="n">
-        <v>351.7048187284125</v>
+        <v>3569.111795050428</v>
       </c>
       <c r="V31" t="n">
-        <v>97.0203305225256</v>
+        <v>3569.111795050428</v>
       </c>
       <c r="W31" t="n">
-        <v>73.99179512662049</v>
+        <v>3569.111795050428</v>
       </c>
       <c r="X31" t="n">
-        <v>73.99179512662049</v>
+        <v>3569.111795050428</v>
       </c>
       <c r="Y31" t="n">
-        <v>73.99179512662049</v>
+        <v>3348.319215906898</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1604.096045035599</v>
+        <v>1611.861580161477</v>
       </c>
       <c r="C32" t="n">
-        <v>1235.133528095188</v>
+        <v>1611.861580161477</v>
       </c>
       <c r="D32" t="n">
-        <v>876.8678294884373</v>
+        <v>1407.546704877934</v>
       </c>
       <c r="E32" t="n">
-        <v>491.079576890193</v>
+        <v>1021.75845227969</v>
       </c>
       <c r="F32" t="n">
-        <v>491.079576890193</v>
+        <v>610.7725474900825</v>
       </c>
       <c r="G32" t="n">
-        <v>73.9917951266205</v>
+        <v>193.68476572651</v>
       </c>
       <c r="H32" t="n">
-        <v>73.9917951266205</v>
+        <v>193.68476572651</v>
       </c>
       <c r="I32" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J32" t="n">
         <v>262.6316941403563</v>
@@ -6725,25 +6725,25 @@
         <v>3699.589756331025</v>
       </c>
       <c r="S32" t="n">
-        <v>3652.932379682587</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T32" t="n">
-        <v>3438.132517950298</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="U32" t="n">
-        <v>3438.132517950298</v>
+        <v>3445.898053076176</v>
       </c>
       <c r="V32" t="n">
-        <v>3107.069630606727</v>
+        <v>3114.835165732605</v>
       </c>
       <c r="W32" t="n">
-        <v>2754.300975336613</v>
+        <v>2762.06651046249</v>
       </c>
       <c r="X32" t="n">
-        <v>2380.835217075533</v>
+        <v>2388.600752201411</v>
       </c>
       <c r="Y32" t="n">
-        <v>1990.695885099721</v>
+        <v>1998.461420225599</v>
       </c>
     </row>
     <row r="33">
@@ -6765,7 +6765,7 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2540276322777</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G33" t="n">
         <v>220.8126299914996</v>
@@ -6774,19 +6774,19 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I33" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J33" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K33" t="n">
-        <v>403.4201994324298</v>
+        <v>232.0072486300746</v>
       </c>
       <c r="L33" t="n">
-        <v>907.7817392985476</v>
+        <v>736.3687884961923</v>
       </c>
       <c r="M33" t="n">
-        <v>1548.327088765651</v>
+        <v>1376.914137963296</v>
       </c>
       <c r="N33" t="n">
         <v>2050.119830216078</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2699.655074871683</v>
+        <v>3054.065428325831</v>
       </c>
       <c r="C34" t="n">
-        <v>2699.655074871683</v>
+        <v>3054.065428325831</v>
       </c>
       <c r="D34" t="n">
-        <v>2699.655074871683</v>
+        <v>3054.065428325831</v>
       </c>
       <c r="E34" t="n">
-        <v>2699.655074871683</v>
+        <v>3015.151867374209</v>
       </c>
       <c r="F34" t="n">
-        <v>2699.655074871683</v>
+        <v>2868.261919876299</v>
       </c>
       <c r="G34" t="n">
-        <v>2699.655074871683</v>
+        <v>2699.655074871682</v>
       </c>
       <c r="H34" t="n">
-        <v>2699.655074871683</v>
+        <v>2699.655074871682</v>
       </c>
       <c r="I34" t="n">
-        <v>2699.655074871683</v>
+        <v>2699.655074871682</v>
       </c>
       <c r="J34" t="n">
-        <v>2699.655074871683</v>
+        <v>2699.655074871682</v>
       </c>
       <c r="K34" t="n">
         <v>2800.703004467292</v>
@@ -6865,7 +6865,7 @@
         <v>2985.53599936811</v>
       </c>
       <c r="M34" t="n">
-        <v>3190.805600087348</v>
+        <v>3190.805600087347</v>
       </c>
       <c r="N34" t="n">
         <v>3396.628964923451</v>
@@ -6880,28 +6880,28 @@
         <v>3699.589756331025</v>
       </c>
       <c r="R34" t="n">
-        <v>3699.589756331025</v>
+        <v>3569.111795050427</v>
       </c>
       <c r="S34" t="n">
-        <v>3492.149471583431</v>
+        <v>3569.111795050427</v>
       </c>
       <c r="T34" t="n">
-        <v>3266.520274895795</v>
+        <v>3343.482598362792</v>
       </c>
       <c r="U34" t="n">
-        <v>2977.368098473475</v>
+        <v>3343.482598362792</v>
       </c>
       <c r="V34" t="n">
-        <v>2722.683610267588</v>
+        <v>3343.482598362792</v>
       </c>
       <c r="W34" t="n">
-        <v>2699.655074871683</v>
+        <v>3054.065428325831</v>
       </c>
       <c r="X34" t="n">
-        <v>2699.655074871683</v>
+        <v>3054.065428325831</v>
       </c>
       <c r="Y34" t="n">
-        <v>2699.655074871683</v>
+        <v>3054.065428325831</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1865.553283416327</v>
+        <v>2134.774920425097</v>
       </c>
       <c r="C35" t="n">
-        <v>1496.590766475915</v>
+        <v>1765.812403484685</v>
       </c>
       <c r="D35" t="n">
-        <v>1138.325067869165</v>
+        <v>1407.546704877934</v>
       </c>
       <c r="E35" t="n">
-        <v>752.5368152709202</v>
+        <v>1021.75845227969</v>
       </c>
       <c r="F35" t="n">
-        <v>511.9078809540005</v>
+        <v>610.7725474900825</v>
       </c>
       <c r="G35" t="n">
-        <v>511.9078809540005</v>
+        <v>193.68476572651</v>
       </c>
       <c r="H35" t="n">
         <v>193.68476572651</v>
@@ -6935,16 +6935,16 @@
         <v>73.9917951266205</v>
       </c>
       <c r="J35" t="n">
-        <v>262.6316941403566</v>
+        <v>262.6316941403562</v>
       </c>
       <c r="K35" t="n">
-        <v>666.0988071604013</v>
+        <v>666.0988071604008</v>
       </c>
       <c r="L35" t="n">
-        <v>1218.9120654066</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M35" t="n">
-        <v>1850.62987638991</v>
+        <v>1850.629876389909</v>
       </c>
       <c r="N35" t="n">
         <v>2477.937544449755</v>
@@ -6962,25 +6962,25 @@
         <v>3699.589756331025</v>
       </c>
       <c r="S35" t="n">
-        <v>3699.589756331025</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T35" t="n">
-        <v>3699.589756331025</v>
+        <v>3328.574857095564</v>
       </c>
       <c r="U35" t="n">
-        <v>3699.589756331025</v>
+        <v>3328.574857095564</v>
       </c>
       <c r="V35" t="n">
-        <v>3368.526868987454</v>
+        <v>3328.574857095564</v>
       </c>
       <c r="W35" t="n">
-        <v>3015.75821371734</v>
+        <v>3284.97985072611</v>
       </c>
       <c r="X35" t="n">
-        <v>2642.29245545626</v>
+        <v>2911.51409246503</v>
       </c>
       <c r="Y35" t="n">
-        <v>2252.153123480448</v>
+        <v>2521.374760489219</v>
       </c>
     </row>
     <row r="36">
@@ -7020,16 +7020,16 @@
         <v>403.4201994324298</v>
       </c>
       <c r="L36" t="n">
-        <v>907.7817392985476</v>
+        <v>807.49310552473</v>
       </c>
       <c r="M36" t="n">
-        <v>1548.327088765651</v>
+        <v>986.990441879334</v>
       </c>
       <c r="N36" t="n">
-        <v>2221.532781018433</v>
+        <v>1660.196134132116</v>
       </c>
       <c r="O36" t="n">
-        <v>2381.045093687193</v>
+        <v>2209.632142884838</v>
       </c>
       <c r="P36" t="n">
         <v>2633.599911365674</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>73.9917951266205</v>
+        <v>240.6726419207948</v>
       </c>
       <c r="C37" t="n">
-        <v>73.9917951266205</v>
+        <v>240.6726419207948</v>
       </c>
       <c r="D37" t="n">
-        <v>73.9917951266205</v>
+        <v>240.6726419207948</v>
       </c>
       <c r="E37" t="n">
-        <v>73.9917951266205</v>
+        <v>240.6726419207948</v>
       </c>
       <c r="F37" t="n">
-        <v>73.9917951266205</v>
+        <v>240.6726419207948</v>
       </c>
       <c r="G37" t="n">
         <v>73.9917951266205</v>
@@ -7126,19 +7126,19 @@
         <v>1073.926476585963</v>
       </c>
       <c r="U37" t="n">
-        <v>846.0830042674853</v>
+        <v>784.7743001636422</v>
       </c>
       <c r="V37" t="n">
-        <v>591.3985160615985</v>
+        <v>530.0898119577554</v>
       </c>
       <c r="W37" t="n">
-        <v>301.9813460246378</v>
+        <v>240.6726419207948</v>
       </c>
       <c r="X37" t="n">
-        <v>73.9917951266205</v>
+        <v>240.6726419207948</v>
       </c>
       <c r="Y37" t="n">
-        <v>73.9917951266205</v>
+        <v>240.6726419207948</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2003.522076954151</v>
+        <v>1656.816251218457</v>
       </c>
       <c r="C38" t="n">
-        <v>1634.55956001374</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="D38" t="n">
-        <v>1606.076849505535</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="E38" t="n">
-        <v>1220.288596907291</v>
+        <v>902.0654816798005</v>
       </c>
       <c r="F38" t="n">
-        <v>809.3026921176836</v>
+        <v>491.079576890193</v>
       </c>
       <c r="G38" t="n">
-        <v>392.2149103541111</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="H38" t="n">
         <v>73.99179512662049</v>
@@ -7172,16 +7172,16 @@
         <v>73.99179512662049</v>
       </c>
       <c r="J38" t="n">
-        <v>262.6316941403562</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K38" t="n">
-        <v>666.0988071604008</v>
+        <v>666.0988071604013</v>
       </c>
       <c r="L38" t="n">
-        <v>1218.912065406599</v>
+        <v>1218.9120654066</v>
       </c>
       <c r="M38" t="n">
-        <v>1850.629876389909</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N38" t="n">
         <v>2477.937544449755</v>
@@ -7202,22 +7202,22 @@
         <v>3699.589756331025</v>
       </c>
       <c r="T38" t="n">
-        <v>3484.789894598735</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="U38" t="n">
-        <v>3484.789894598735</v>
+        <v>3445.898053076176</v>
       </c>
       <c r="V38" t="n">
-        <v>3153.727007255165</v>
+        <v>3159.789836789584</v>
       </c>
       <c r="W38" t="n">
-        <v>3153.727007255165</v>
+        <v>2807.02118151947</v>
       </c>
       <c r="X38" t="n">
-        <v>2780.261248994085</v>
+        <v>2433.55542325839</v>
       </c>
       <c r="Y38" t="n">
-        <v>2390.121917018273</v>
+        <v>2043.416091282578</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4134795532265</v>
+        <v>2030.6663833166</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9604502720995</v>
+        <v>1856.213354035473</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0260406108482</v>
+        <v>1707.278944374222</v>
       </c>
       <c r="E39" t="n">
-        <v>504.7885856053927</v>
+        <v>1548.041489368766</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2540276322776</v>
+        <v>1401.506931395651</v>
       </c>
       <c r="G39" t="n">
-        <v>220.8126299914996</v>
+        <v>1264.065533754873</v>
       </c>
       <c r="H39" t="n">
-        <v>119.8966521363041</v>
+        <v>1163.149555899678</v>
       </c>
       <c r="I39" t="n">
-        <v>73.99179512662049</v>
+        <v>1117.244698889994</v>
       </c>
       <c r="J39" t="n">
-        <v>73.99179512662049</v>
+        <v>1117.244698889994</v>
       </c>
       <c r="K39" t="n">
-        <v>403.4201994324298</v>
+        <v>1446.673103195803</v>
       </c>
       <c r="L39" t="n">
-        <v>907.7817392985476</v>
+        <v>1951.034643061921</v>
       </c>
       <c r="M39" t="n">
-        <v>1548.327088765651</v>
+        <v>2504.792296242826</v>
       </c>
       <c r="N39" t="n">
-        <v>2221.532781018433</v>
+        <v>2703.44903789549</v>
       </c>
       <c r="O39" t="n">
-        <v>2381.045093687193</v>
+        <v>3252.885046648212</v>
       </c>
       <c r="P39" t="n">
-        <v>2633.599911365674</v>
+        <v>3676.852815129048</v>
       </c>
       <c r="Q39" t="n">
-        <v>2656.336852567651</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R39" t="n">
-        <v>2635.224952969837</v>
+        <v>3678.477856733211</v>
       </c>
       <c r="S39" t="n">
-        <v>2485.758163832472</v>
+        <v>3529.011067595846</v>
       </c>
       <c r="T39" t="n">
-        <v>2288.76886799256</v>
+        <v>3332.021771755934</v>
       </c>
       <c r="U39" t="n">
-        <v>2060.630080503725</v>
+        <v>3103.882984267099</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.477972271983</v>
+        <v>2868.730876035357</v>
       </c>
       <c r="W39" t="n">
-        <v>1571.240615543781</v>
+        <v>2614.493519307155</v>
       </c>
       <c r="X39" t="n">
-        <v>1363.389115338248</v>
+        <v>2406.642019101622</v>
       </c>
       <c r="Y39" t="n">
-        <v>1155.628816573294</v>
+        <v>2198.881720336668</v>
       </c>
     </row>
     <row r="40">
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>220.9618638331747</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="C40" t="n">
-        <v>220.9618638331747</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="D40" t="n">
-        <v>220.9618638331747</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="E40" t="n">
         <v>73.99179512662049</v>
@@ -7354,28 +7354,28 @@
         <v>1073.926476585963</v>
       </c>
       <c r="R40" t="n">
-        <v>943.448515305365</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S40" t="n">
-        <v>736.0082305577704</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T40" t="n">
-        <v>510.3790338701353</v>
+        <v>907.2456297917881</v>
       </c>
       <c r="U40" t="n">
-        <v>510.3790338701353</v>
+        <v>618.093453369468</v>
       </c>
       <c r="V40" t="n">
-        <v>510.3790338701353</v>
+        <v>363.4089651635811</v>
       </c>
       <c r="W40" t="n">
-        <v>220.9618638331747</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="X40" t="n">
-        <v>220.9618638331747</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.9618638331747</v>
+        <v>73.99179512662049</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1577.945354755379</v>
+        <v>1954.241103772296</v>
       </c>
       <c r="C41" t="n">
-        <v>1208.982837814967</v>
+        <v>1585.278586831884</v>
       </c>
       <c r="D41" t="n">
-        <v>850.7171392082163</v>
+        <v>1227.012888225134</v>
       </c>
       <c r="E41" t="n">
-        <v>464.928886609972</v>
+        <v>841.2246356268895</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036446</v>
+        <v>430.2387308372819</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J41" t="n">
-        <v>242.5828808341002</v>
+        <v>75.17723181374717</v>
       </c>
       <c r="K41" t="n">
-        <v>325.1460354086917</v>
+        <v>478.6443448337917</v>
       </c>
       <c r="L41" t="n">
-        <v>803.6554202972204</v>
+        <v>1031.45760307999</v>
       </c>
       <c r="M41" t="n">
-        <v>1435.373231280531</v>
+        <v>1663.1754140633</v>
       </c>
       <c r="N41" t="n">
-        <v>2062.680899340377</v>
+        <v>2290.483082123146</v>
       </c>
       <c r="O41" t="n">
-        <v>2232.849924657335</v>
+        <v>2551.430645747102</v>
       </c>
       <c r="P41" t="n">
-        <v>2662.164970996629</v>
+        <v>2662.164970996628</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018223</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X41" t="n">
-        <v>2354.684526795312</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y41" t="n">
-        <v>1964.5451948195</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>643.9772273045921</v>
       </c>
       <c r="E42" t="n">
-        <v>484.7397722991367</v>
+        <v>484.7397722991366</v>
       </c>
       <c r="F42" t="n">
         <v>338.2052143260216</v>
@@ -7482,28 +7482,28 @@
         <v>200.7638166852435</v>
       </c>
       <c r="H42" t="n">
-        <v>99.84783883004809</v>
+        <v>99.84783883004806</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K42" t="n">
-        <v>383.3713861261738</v>
+        <v>383.3713861261737</v>
       </c>
       <c r="L42" t="n">
-        <v>887.7329259922915</v>
+        <v>800.945229706093</v>
       </c>
       <c r="M42" t="n">
-        <v>1528.278275459395</v>
+        <v>1441.490579173197</v>
       </c>
       <c r="N42" t="n">
-        <v>1726.935017112059</v>
+        <v>1640.14732082586</v>
       </c>
       <c r="O42" t="n">
-        <v>2276.371025864781</v>
+        <v>2189.583329578582</v>
       </c>
       <c r="P42" t="n">
         <v>2613.551098059418</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>493.9514489485653</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="C43" t="n">
-        <v>493.9514489485653</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="D43" t="n">
-        <v>493.9514489485653</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E43" t="n">
-        <v>493.9514489485653</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F43" t="n">
-        <v>347.0615014506549</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G43" t="n">
-        <v>178.4546564460383</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H43" t="n">
-        <v>178.4546564460383</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K43" t="n">
         <v>154.9909114159739</v>
       </c>
       <c r="L43" t="n">
-        <v>339.8239063167919</v>
+        <v>339.8239063167918</v>
       </c>
       <c r="M43" t="n">
-        <v>545.0935070360293</v>
+        <v>545.0935070360292</v>
       </c>
       <c r="N43" t="n">
-        <v>750.9168718721332</v>
+        <v>750.916871872133</v>
       </c>
       <c r="O43" t="n">
-        <v>925.0117672607316</v>
+        <v>925.0117672607314</v>
       </c>
       <c r="P43" t="n">
         <v>1050.459343859347</v>
       </c>
       <c r="Q43" t="n">
-        <v>1053.877663279707</v>
+        <v>1053.877663279706</v>
       </c>
       <c r="R43" t="n">
-        <v>1053.877663279707</v>
+        <v>1053.877663279706</v>
       </c>
       <c r="S43" t="n">
-        <v>1053.877663279707</v>
+        <v>1053.877663279706</v>
       </c>
       <c r="T43" t="n">
-        <v>828.2484665920715</v>
+        <v>828.2484665920713</v>
       </c>
       <c r="U43" t="n">
-        <v>828.2484665920715</v>
+        <v>828.2484665920713</v>
       </c>
       <c r="V43" t="n">
-        <v>828.2484665920715</v>
+        <v>828.2484665920713</v>
       </c>
       <c r="W43" t="n">
-        <v>828.2484665920715</v>
+        <v>538.8312965551106</v>
       </c>
       <c r="X43" t="n">
-        <v>714.7440280920954</v>
+        <v>310.8417456570933</v>
       </c>
       <c r="Y43" t="n">
-        <v>493.9514489485653</v>
+        <v>310.8417456570933</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1623.178216428726</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C44" t="n">
-        <v>1254.215699488315</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D44" t="n">
-        <v>895.9500008815642</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E44" t="n">
-        <v>510.1617482833199</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F44" t="n">
-        <v>99.17584349371236</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J44" t="n">
-        <v>75.1772318137472</v>
+        <v>75.17723181374717</v>
       </c>
       <c r="K44" t="n">
-        <v>478.6443448337918</v>
+        <v>478.6443448337917</v>
       </c>
       <c r="L44" t="n">
         <v>1031.45760307999</v>
@@ -7658,40 +7658,40 @@
         <v>1663.1754140633</v>
       </c>
       <c r="N44" t="n">
-        <v>2290.483082123146</v>
+        <v>1857.509626955281</v>
       </c>
       <c r="O44" t="n">
-        <v>2551.430645747103</v>
+        <v>2232.849924657334</v>
       </c>
       <c r="P44" t="n">
-        <v>2662.164970996629</v>
+        <v>2662.164970996628</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018223</v>
+        <v>2495.433615275994</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018223</v>
+        <v>2241.741912021145</v>
       </c>
       <c r="V44" t="n">
-        <v>2366.086203674652</v>
+        <v>1910.679024677574</v>
       </c>
       <c r="W44" t="n">
-        <v>2013.317548404538</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="X44" t="n">
-        <v>2013.317548404538</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y44" t="n">
-        <v>1623.178216428726</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>643.9772273045921</v>
       </c>
       <c r="E45" t="n">
-        <v>484.7397722991367</v>
+        <v>484.7397722991366</v>
       </c>
       <c r="F45" t="n">
         <v>338.2052143260216</v>
@@ -7719,31 +7719,31 @@
         <v>200.7638166852435</v>
       </c>
       <c r="H45" t="n">
-        <v>99.84783883004809</v>
+        <v>99.84783883004806</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K45" t="n">
-        <v>383.3713861261738</v>
+        <v>121.5508014837209</v>
       </c>
       <c r="L45" t="n">
-        <v>887.7329259922915</v>
+        <v>625.9123413498387</v>
       </c>
       <c r="M45" t="n">
-        <v>1528.278275459395</v>
+        <v>1266.457690816942</v>
       </c>
       <c r="N45" t="n">
-        <v>1822.094502051332</v>
+        <v>1640.14732082586</v>
       </c>
       <c r="O45" t="n">
-        <v>1981.606814720092</v>
+        <v>2189.583329578582</v>
       </c>
       <c r="P45" t="n">
-        <v>2405.574583200927</v>
+        <v>2613.551098059418</v>
       </c>
       <c r="Q45" t="n">
         <v>2636.288039261395</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>362.2844428836165</v>
+        <v>370.4629204073742</v>
       </c>
       <c r="C46" t="n">
-        <v>362.2844428836165</v>
+        <v>370.4629204073742</v>
       </c>
       <c r="D46" t="n">
-        <v>362.2844428836165</v>
+        <v>370.4629204073742</v>
       </c>
       <c r="E46" t="n">
-        <v>362.2844428836165</v>
+        <v>222.549826824981</v>
       </c>
       <c r="F46" t="n">
-        <v>222.5498268249811</v>
+        <v>222.549826824981</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K46" t="n">
         <v>154.9909114159739</v>
       </c>
       <c r="L46" t="n">
-        <v>339.8239063167919</v>
+        <v>339.8239063167918</v>
       </c>
       <c r="M46" t="n">
-        <v>545.0935070360293</v>
+        <v>545.0935070360292</v>
       </c>
       <c r="N46" t="n">
-        <v>750.9168718721332</v>
+        <v>750.916871872133</v>
       </c>
       <c r="O46" t="n">
-        <v>925.0117672607316</v>
+        <v>925.0117672607314</v>
       </c>
       <c r="P46" t="n">
         <v>1050.459343859347</v>
       </c>
       <c r="Q46" t="n">
-        <v>1053.877663279707</v>
+        <v>1053.877663279706</v>
       </c>
       <c r="R46" t="n">
-        <v>1053.877663279707</v>
+        <v>1053.877663279706</v>
       </c>
       <c r="S46" t="n">
-        <v>1053.877663279707</v>
+        <v>1053.877663279706</v>
       </c>
       <c r="T46" t="n">
-        <v>1053.877663279707</v>
+        <v>828.2484665920713</v>
       </c>
       <c r="U46" t="n">
-        <v>764.7254868573864</v>
+        <v>828.2484665920713</v>
       </c>
       <c r="V46" t="n">
-        <v>764.7254868573864</v>
+        <v>780.1009361356312</v>
       </c>
       <c r="W46" t="n">
-        <v>764.7254868573864</v>
+        <v>780.1009361356312</v>
       </c>
       <c r="X46" t="n">
-        <v>764.7254868573864</v>
+        <v>552.1113852376138</v>
       </c>
       <c r="Y46" t="n">
-        <v>543.9329077138563</v>
+        <v>552.1113852376138</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8705,7 +8705,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8778,7 +8778,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,16 +8924,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>162.755549869154</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9009,16 +9009,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O15" t="n">
-        <v>347.1032070028236</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9179,7 +9179,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714823</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9252,13 +9252,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>230.7984289569079</v>
+        <v>145.3183738900841</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9480,7 +9480,7 @@
         <v>6.233205181928724</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>91.32084226272488</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>145.3183738900836</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9717,19 +9717,19 @@
         <v>6.233205181928724</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>91.32084226272488</v>
       </c>
       <c r="L24" t="n">
-        <v>269.5386950268762</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9954,10 +9954,10 @@
         <v>6.233205181928724</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>68.29886828945465</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9966,10 +9966,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>145.3183738900836</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>6.233205181928724</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>91.32084226272488</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,13 +10200,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>230.7984289569079</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>6.233205181928724</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>91.32084226272488</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,7 +10437,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>306.1979795936999</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10668,19 +10668,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>269.5386950268758</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>145.3183738900836</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10908,16 +10908,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>378.0407240669708</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>145.3183738900836</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>342.6067970174511</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11072,10 +11072,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>91.69549323939182</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>283.1760056204304</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11154,7 +11154,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>230.7984289569084</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11306,13 +11306,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>91.69549323939273</v>
+        <v>207.2437094798933</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>6.233205181928724</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,16 +11385,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>96.12069185785137</v>
+        <v>176.8008973295497</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -22592,16 +22592,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>210.6572032248191</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22610,10 +22610,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22711,22 +22711,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22753,13 +22753,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>56.01837628787186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22784,19 +22784,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>75.75599214111389</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>129.2226540149254</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -22835,19 +22835,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22942,10 +22942,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>75.23878421646965</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -22954,16 +22954,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>82.85718120047571</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,7 +22987,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -23027,19 +23027,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>89.79231049789928</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,22 +23066,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>86.34584229143772</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23185,22 +23185,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>114.161441527033</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>93.28560191455108</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23224,7 +23224,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23261,19 +23261,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>328.8326777863792</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23318,7 +23318,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23464,22 +23464,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>56.01837628787177</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>96.68503059263386</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>264.2080233068713</v>
       </c>
       <c r="G14" t="n">
-        <v>88.92504442304107</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938903</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23540,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23665,16 +23665,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>123.266557879417</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176898</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,25 +23695,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677913</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>96.25160475629417</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>263.7247482946422</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23747,10 +23747,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>108.3912221993242</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
-        <v>226.8872630932154</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9207765545704</v>
+        <v>136.7834424633279</v>
       </c>
       <c r="H19" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>17.6958418817692</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>80.20928736954855</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>118.4960408938906</v>
@@ -24017,19 +24017,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>44.50512434640967</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>263.0441093274645</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>87.9607737135396</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>1.169115569052366</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>17.6958418817692</v>
@@ -24187,13 +24187,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24209,7 +24209,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>232.3293359964854</v>
+        <v>93.4300492966874</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24254,7 +24254,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>212.651863114966</v>
@@ -24263,10 +24263,10 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>56.74426654981447</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>87.96077371353934</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24443,10 +24443,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>163.0011652402998</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,13 +24455,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>164.7230404939236</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,7 +24494,7 @@
         <v>154.6528871281403</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24503,7 +24503,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>85.62402304526125</v>
+        <v>14.81794185570479</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24652,13 +24652,13 @@
         <v>205.3658819001187</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U28" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24683,7 +24683,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>71.4359074969575</v>
+        <v>113.8332951025942</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>118.4960408938906</v>
@@ -24734,13 +24734,13 @@
         <v>212.651863114966</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24838,19 +24838,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>132.4605817160485</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>152.7120966692326</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>129.1731816677915</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>263.7247482946449</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24917,16 +24917,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>152.4113150899757</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24935,7 +24935,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,13 +24965,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>108.4620842461863</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25081,13 +25081,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>107.9095373044629</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>152.7120966692326</v>
@@ -25120,22 +25120,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>129.1731816677915</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>263.7247482946444</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25163,13 +25163,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>168.653400767961</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25202,19 +25202,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>306.0819124116539</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.9207765545704</v>
+        <v>1.906738228337929</v>
       </c>
       <c r="H37" t="n">
         <v>152.7120966692326</v>
@@ -25366,7 +25366,7 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U37" t="n">
-        <v>60.69561706280456</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25394,7 +25394,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>326.4851582175608</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25406,7 +25406,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I38" t="n">
         <v>118.4960408938906</v>
@@ -25442,16 +25442,16 @@
         <v>154.6528871281403</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>44.50512434640945</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0.933594627080538</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25594,19 +25594,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>58.3588663945261</v>
       </c>
       <c r="U40" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>412.9169039459368</v>
+        <v>40.38411241918845</v>
       </c>
       <c r="H41" t="n">
         <v>315.0408840752156</v>
@@ -25688,10 +25688,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>30.69118209778748</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>71.93616663014492</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25792,19 +25792,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H43" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J43" t="n">
         <v>17.6958418817692</v>
@@ -25846,13 +25846,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>113.3402612740608</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,13 +25871,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>368.1363708893223</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H44" t="n">
         <v>315.0408840752156</v>
@@ -25916,10 +25916,10 @@
         <v>154.6528871281403</v>
       </c>
       <c r="T44" t="n">
-        <v>212.651863114966</v>
+        <v>12.9535421301602</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26029,10 +26029,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>7.083778124882144</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26074,22 +26074,22 @@
         <v>205.3658819001187</v>
       </c>
       <c r="T46" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>204.4715881719523</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>729397.9021790256</v>
+        <v>729397.9021790257</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>729397.9021790257</v>
+        <v>729397.9021790256</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>729397.9021790257</v>
+        <v>729397.9021790256</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>741902.0698922938</v>
+        <v>729397.9021790256</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>842700.5863150558</v>
+        <v>842700.5863150561</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>842700.5863150558</v>
+        <v>842700.5863150561</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>842700.586315056</v>
+        <v>842700.5863150562</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>842700.5863150561</v>
+        <v>842700.586315056</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>842700.5863150558</v>
+        <v>842700.5863150561</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>741902.0698922938</v>
+        <v>741902.0698922935</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>741902.0698922938</v>
+        <v>741902.0698922937</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318067.8710173333</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="C2" t="n">
         <v>318067.8710173335</v>
       </c>
       <c r="D2" t="n">
-        <v>318067.8710173336</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="E2" t="n">
         <v>318067.8710173334</v>
       </c>
       <c r="F2" t="n">
-        <v>328930.1971346177</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="G2" t="n">
-        <v>371509.2212626556</v>
+        <v>371509.2212626555</v>
       </c>
       <c r="H2" t="n">
-        <v>371509.2212626556</v>
+        <v>371509.2212626558</v>
       </c>
       <c r="I2" t="n">
         <v>371509.2212626557</v>
       </c>
       <c r="J2" t="n">
-        <v>371509.2212626558</v>
+        <v>371509.2212626557</v>
       </c>
       <c r="K2" t="n">
+        <v>371509.2212626557</v>
+      </c>
+      <c r="L2" t="n">
         <v>371509.2212626556</v>
-      </c>
-      <c r="L2" t="n">
-        <v>371509.2212626557</v>
       </c>
       <c r="M2" t="n">
         <v>371509.2212626556</v>
       </c>
       <c r="N2" t="n">
-        <v>371509.2212626556</v>
+        <v>371509.2212626557</v>
       </c>
       <c r="O2" t="n">
-        <v>328930.1971346176</v>
+        <v>328930.1971346175</v>
       </c>
       <c r="P2" t="n">
-        <v>328930.1971346175</v>
+        <v>328930.1971346177</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>170524.6254696468</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>68688.4874380635</v>
+        <v>236417.6520004547</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="C4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="D4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="E4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="F4" t="n">
-        <v>26486.66836975816</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="G4" t="n">
-        <v>35067.62056791536</v>
+        <v>32774.53910638623</v>
       </c>
       <c r="H4" t="n">
-        <v>35067.62056791536</v>
+        <v>32774.53910638623</v>
       </c>
       <c r="I4" t="n">
-        <v>35067.62056791536</v>
+        <v>32774.53910638623</v>
       </c>
       <c r="J4" t="n">
-        <v>35067.62056791536</v>
+        <v>32774.53910638623</v>
       </c>
       <c r="K4" t="n">
-        <v>35067.62056791536</v>
+        <v>32774.53910638623</v>
       </c>
       <c r="L4" t="n">
-        <v>35067.62056791536</v>
+        <v>32774.53910638623</v>
       </c>
       <c r="M4" t="n">
-        <v>35067.62056791536</v>
+        <v>32774.53910638623</v>
       </c>
       <c r="N4" t="n">
-        <v>35067.62056791536</v>
+        <v>32774.53910638623</v>
       </c>
       <c r="O4" t="n">
-        <v>26486.66836975825</v>
+        <v>24757.22927901079</v>
       </c>
       <c r="P4" t="n">
-        <v>26486.66836975826</v>
+        <v>24757.22927901079</v>
       </c>
     </row>
     <row r="5">
@@ -26473,31 +26473,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>53934.4451708468</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>69171.54328360135</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="H5" t="n">
-        <v>69171.54328360135</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="I5" t="n">
-        <v>69171.54328360135</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="J5" t="n">
         <v>69171.54328360136</v>
       </c>
       <c r="K5" t="n">
+        <v>69171.54328360136</v>
+      </c>
+      <c r="L5" t="n">
         <v>69171.54328360135</v>
-      </c>
-      <c r="L5" t="n">
-        <v>69171.54328360136</v>
       </c>
       <c r="M5" t="n">
         <v>69171.54328360136</v>
@@ -26506,10 +26506,10 @@
         <v>69171.54328360135</v>
       </c>
       <c r="O5" t="n">
-        <v>53934.44517084677</v>
+        <v>53934.44517084675</v>
       </c>
       <c r="P5" t="n">
-        <v>53934.44517084677</v>
+        <v>53934.44517084675</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-393232.1540643297</v>
+        <v>-390703.8329008871</v>
       </c>
       <c r="C6" t="n">
-        <v>196735.7251502149</v>
+        <v>199264.0463136572</v>
       </c>
       <c r="D6" t="n">
-        <v>196735.725150215</v>
+        <v>199264.0463136572</v>
       </c>
       <c r="E6" t="n">
-        <v>230363.3251502147</v>
+        <v>232891.6463136571</v>
       </c>
       <c r="F6" t="n">
-        <v>77984.45812436598</v>
+        <v>232891.6463136572</v>
       </c>
       <c r="G6" t="n">
-        <v>198581.5699730754</v>
+        <v>33145.48687221317</v>
       </c>
       <c r="H6" t="n">
-        <v>267270.0574111389</v>
+        <v>269563.1388726682</v>
       </c>
       <c r="I6" t="n">
-        <v>267270.057411139</v>
+        <v>269563.1388726681</v>
       </c>
       <c r="J6" t="n">
-        <v>90846.83821854611</v>
+        <v>93139.91968007515</v>
       </c>
       <c r="K6" t="n">
-        <v>267270.0574111389</v>
+        <v>269563.1388726681</v>
       </c>
       <c r="L6" t="n">
-        <v>267270.057411139</v>
+        <v>269563.138872668</v>
       </c>
       <c r="M6" t="n">
-        <v>267270.0574111389</v>
+        <v>269563.138872668</v>
       </c>
       <c r="N6" t="n">
-        <v>267270.0574111389</v>
+        <v>269563.1388726681</v>
       </c>
       <c r="O6" t="n">
-        <v>248509.0835940126</v>
+        <v>250238.52268476</v>
       </c>
       <c r="P6" t="n">
-        <v>248509.0835940125</v>
+        <v>250238.5226847601</v>
       </c>
     </row>
   </sheetData>
@@ -26738,16 +26738,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380651</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
         <v>593.4761003380634</v>
@@ -26796,28 +26796,28 @@
         <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>924.8974390827561</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="H4" t="n">
-        <v>924.8974390827561</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="I4" t="n">
-        <v>924.8974390827561</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="J4" t="n">
         <v>924.8974390827563</v>
       </c>
       <c r="K4" t="n">
+        <v>924.8974390827563</v>
+      </c>
+      <c r="L4" t="n">
         <v>924.8974390827561</v>
-      </c>
-      <c r="L4" t="n">
-        <v>924.8974390827563</v>
       </c>
       <c r="M4" t="n">
         <v>924.8974390827563</v>
@@ -26826,10 +26826,10 @@
         <v>924.8974390827561</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
     </row>
   </sheetData>
@@ -26969,10 +26969,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>215.7324361209784</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>215.7324361209767</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>250.6101663282004</v>
+        <v>250.6101663282006</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>250.6101663282004</v>
+        <v>250.6101663282006</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.38583356919825</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055158</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651562</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937401</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779021</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712531</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074825</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
-        <v>425.710248335967</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822519</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426701</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.6431848457577</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810517</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916534</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840366</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>12.32862615985301</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>43.95082441182841</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>120.6044214847383</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070429</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512822</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842454</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>332.0050874900653</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947077</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671574</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607457</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080804</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
-        <v>23.71104985784626</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308317</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888314</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838207016</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784131</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490379</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>124.3381075790241</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
-        <v>159.1099695889954</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676927</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441091</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714137</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>129.436164572092</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.61489115104783</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937817</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685361</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522795</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35425,7 +35425,7 @@
         <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116803</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35498,7 +35498,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
@@ -35507,7 +35507,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>21.44873736705384</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>246.1526757020756</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517163</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>188.5852654802098</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513602</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233105</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588832</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>35.33749497130819</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>119.8578301584805</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
-        <v>332.7559639452625</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>138.615755571408</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>647.0155045122269</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>200.663375406732</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O15" t="n">
-        <v>508.2267551530869</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>428.2502711927643</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.0438950105733</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,25 +35805,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0686157531412</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493115</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295333</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233377</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>175.8534296854534</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369855</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353443</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>552.6880856233093</v>
       </c>
       <c r="P17" t="n">
-        <v>433.6515619588819</v>
+        <v>433.6515619588822</v>
       </c>
       <c r="Q17" t="n">
         <v>247.6524856312121</v>
@@ -35972,13 +35972,13 @@
         <v>647.015504512226</v>
       </c>
       <c r="N18" t="n">
-        <v>200.663375406731</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O18" t="n">
-        <v>554.9858674269919</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P18" t="n">
-        <v>340.5859315097343</v>
+        <v>255.1058764429105</v>
       </c>
       <c r="Q18" t="n">
         <v>22.96660727472374</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.5453525391266</v>
+        <v>190.545352539127</v>
       </c>
       <c r="K20" t="n">
         <v>407.5425384040854</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>332.7559639452619</v>
+        <v>159.6115691954082</v>
       </c>
       <c r="L21" t="n">
         <v>509.4561008748664</v>
@@ -36215,7 +36215,7 @@
         <v>161.1235481502624</v>
       </c>
       <c r="P21" t="n">
-        <v>255.1058764429101</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q21" t="n">
         <v>22.96660727472374</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>332.7559639452619</v>
+        <v>159.6115691954082</v>
       </c>
       <c r="L24" t="n">
-        <v>408.1544505982835</v>
+        <v>509.4561008748664</v>
       </c>
       <c r="M24" t="n">
-        <v>181.3104407622262</v>
+        <v>647.015504512226</v>
       </c>
       <c r="N24" t="n">
         <v>680.0057497502846</v>
       </c>
       <c r="O24" t="n">
-        <v>554.9858674269919</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P24" t="n">
         <v>428.2502711927636</v>
@@ -36674,10 +36674,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>68.29072693268327</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L27" t="n">
-        <v>206.9146238608619</v>
+        <v>509.4561008748664</v>
       </c>
       <c r="M27" t="n">
         <v>647.015504512226</v>
@@ -36686,10 +36686,10 @@
         <v>680.0057497502846</v>
       </c>
       <c r="O27" t="n">
-        <v>554.9858674269919</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P27" t="n">
-        <v>428.2502711927636</v>
+        <v>255.1058764429101</v>
       </c>
       <c r="Q27" t="n">
         <v>22.96660727472374</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>332.7559639452619</v>
+        <v>159.6115691954082</v>
       </c>
       <c r="L30" t="n">
         <v>509.4561008748664</v>
@@ -36920,13 +36920,13 @@
         <v>647.015504512226</v>
       </c>
       <c r="N30" t="n">
-        <v>200.663375406731</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O30" t="n">
-        <v>554.9858674269919</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P30" t="n">
-        <v>340.5859315097343</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q30" t="n">
         <v>22.96660727472374</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>332.7559639452619</v>
+        <v>159.6115691954082</v>
       </c>
       <c r="L33" t="n">
         <v>509.4561008748664</v>
@@ -37157,7 +37157,7 @@
         <v>647.015504512226</v>
       </c>
       <c r="N33" t="n">
-        <v>506.8613550004309</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O33" t="n">
         <v>161.1235481502624</v>
@@ -37388,19 +37388,19 @@
         <v>332.7559639452619</v>
       </c>
       <c r="L36" t="n">
-        <v>509.4561008748664</v>
+        <v>408.1544505982831</v>
       </c>
       <c r="M36" t="n">
-        <v>647.015504512226</v>
+        <v>181.3104407622262</v>
       </c>
       <c r="N36" t="n">
         <v>680.0057497502846</v>
       </c>
       <c r="O36" t="n">
-        <v>161.1235481502624</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P36" t="n">
-        <v>255.1058764429101</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q36" t="n">
         <v>22.96660727472374</v>
@@ -37628,16 +37628,16 @@
         <v>509.4561008748664</v>
       </c>
       <c r="M39" t="n">
-        <v>647.015504512226</v>
+        <v>559.3511648291969</v>
       </c>
       <c r="N39" t="n">
-        <v>680.0057497502846</v>
+        <v>200.663375406731</v>
       </c>
       <c r="O39" t="n">
-        <v>161.1235481502624</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P39" t="n">
-        <v>255.1058764429101</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q39" t="n">
         <v>22.96660727472374</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.545352539127</v>
+        <v>21.44873736705327</v>
       </c>
       <c r="K41" t="n">
-        <v>83.39712583292066</v>
+        <v>407.5425384040854</v>
       </c>
       <c r="L41" t="n">
-        <v>483.3428130187159</v>
+        <v>558.3972305517152</v>
       </c>
       <c r="M41" t="n">
         <v>638.098798973041</v>
@@ -37792,10 +37792,10 @@
         <v>633.6441091513591</v>
       </c>
       <c r="O41" t="n">
-        <v>171.887904360564</v>
+        <v>263.5833975999558</v>
       </c>
       <c r="P41" t="n">
-        <v>433.6515619588822</v>
+        <v>111.8528537873996</v>
       </c>
       <c r="Q41" t="n">
         <v>35.33749497130745</v>
@@ -37862,7 +37862,7 @@
         <v>332.7559639452619</v>
       </c>
       <c r="L42" t="n">
-        <v>509.4561008748664</v>
+        <v>421.7917611918376</v>
       </c>
       <c r="M42" t="n">
         <v>647.015504512226</v>
@@ -37874,7 +37874,7 @@
         <v>554.9858674269919</v>
       </c>
       <c r="P42" t="n">
-        <v>340.5859315097348</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q42" t="n">
         <v>22.96660727472374</v>
@@ -38026,13 +38026,13 @@
         <v>638.098798973041</v>
       </c>
       <c r="N44" t="n">
-        <v>633.6441091513591</v>
+        <v>196.2971847393749</v>
       </c>
       <c r="O44" t="n">
-        <v>263.5833975999568</v>
+        <v>379.1316138404574</v>
       </c>
       <c r="P44" t="n">
-        <v>111.8528537873996</v>
+        <v>433.6515619588822</v>
       </c>
       <c r="Q44" t="n">
         <v>35.33749497130745</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>332.7559639452619</v>
+        <v>68.29072693268327</v>
       </c>
       <c r="L45" t="n">
         <v>509.4561008748664</v>
@@ -38105,16 +38105,16 @@
         <v>647.015504512226</v>
       </c>
       <c r="N45" t="n">
-        <v>296.7840672645824</v>
+        <v>377.4642727362807</v>
       </c>
       <c r="O45" t="n">
-        <v>161.1235481502624</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P45" t="n">
         <v>428.2502711927636</v>
       </c>
       <c r="Q45" t="n">
-        <v>233.0438950105728</v>
+        <v>22.96660727472374</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1252055.780101481</v>
+        <v>1230991.550695067</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2083705.798332964</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3522967.675855586</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10278943.77282929</v>
+        <v>11336344.66186955</v>
       </c>
     </row>
     <row r="11">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>347.7934439890836</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>205.5534162241014</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>44.19095768640517</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>91.54126986570915</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.50046002839245</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>156.127162662147</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>60.4617907661316</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>295.9408816142905</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>18.37682225755695</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>25.31590541686263</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281403</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>204.6178034037924</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>99.90681807664349</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958679</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183532</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>58.42247119226052</v>
       </c>
       <c r="I13" t="n">
-        <v>112.3904931322766</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677915</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001187</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>13.72873797884504</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664348</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958678</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183531</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>165.0140383262328</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>43.99330059856885</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>122.2151751544596</v>
+        <v>155.8385935972305</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2295,19 +2295,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>246.7083340210951</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>113.1570781730515</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2335,10 +2335,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>102.0005969012859</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>124.8662493629312</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2490,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>109.7158546988682</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>13.00407538591742</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>46.25307783771848</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>155.8385935972304</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>238.2336684417116</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.25307783771848</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>88.44827742123786</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>92.34798888139578</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>152.3458132526256</v>
+        <v>61.8105299551722</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1373.145632153538</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1004.183115213127</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>1004.183115213127</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="E2" t="n">
-        <v>618.3948626148824</v>
+        <v>565.6609676543608</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4089578252748</v>
+        <v>558.7154669051573</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2489.519377660544</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2489.519377660544</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2489.519377660544</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2136.75072239043</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1763.28496412935</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1373.145632153538</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>550.798971477663</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>403.9090239797526</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>234.9092237180851</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>234.9092237180851</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>98.58031281673331</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2088.375092014473</v>
+        <v>1626.717708340416</v>
       </c>
       <c r="C5" t="n">
-        <v>1719.412575074062</v>
+        <v>1257.755191400005</v>
       </c>
       <c r="D5" t="n">
-        <v>1361.146876467311</v>
+        <v>899.4894927932542</v>
       </c>
       <c r="E5" t="n">
-        <v>975.3586238690671</v>
+        <v>513.7012401950099</v>
       </c>
       <c r="F5" t="n">
-        <v>564.3727190794596</v>
+        <v>102.7153354054023</v>
       </c>
       <c r="G5" t="n">
-        <v>146.4089109776464</v>
+        <v>88.7919313439932</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>88.7919313439932</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.514423990285</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2478.514423990285</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>2478.514423990285</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.375092014473</v>
+        <v>2013.317548404538</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.553390680693</v>
+        <v>863.1126181035247</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>494.150101163113</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>135.8844025563625</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224083</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.84331964269</v>
@@ -4825,31 +4825,31 @@
         <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.30824683495</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473042</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.483574129471</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1363.553390680693</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1363.553390680693</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1363.553390680693</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4874,25 +4874,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064347</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064347</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064347</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>702.55736257324</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>702.55736257324</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>702.55736257324</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>702.55736257324</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>702.55736257324</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>702.55736257324</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064347</v>
+        <v>702.55736257324</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064347</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064347</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1287.853734278045</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>1287.853734278045</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1287.853734278045</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>902.0654816798005</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>491.079576890193</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>73.9917951266205</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>73.9917951266205</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>262.6316941403561</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>666.0988071604011</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
-        <v>1218.912065406599</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>1850.62987638991</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>2477.937544449755</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3025.098749216831</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>3454.413795556125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>3699.589756331025</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>3699.589756331025</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>3543.374718827853</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>3328.574857095564</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>3121.890207192743</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>2790.827319849172</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>2438.058664579058</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>2064.592906317978</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>1674.453574342167</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2540276322777</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8126299914996</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>73.9917951266205</v>
+        <v>159.1396882805848</v>
       </c>
       <c r="K12" t="n">
-        <v>141.599614789977</v>
+        <v>570.0299571250974</v>
       </c>
       <c r="L12" t="n">
-        <v>346.4450924122302</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M12" t="n">
-        <v>986.990441879334</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N12" t="n">
-        <v>1660.196134132116</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O12" t="n">
-        <v>2209.632142884838</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2633.599911365674</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S12" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>510.3790338701353</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="C13" t="n">
-        <v>510.3790338701353</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="D13" t="n">
-        <v>510.3790338701353</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="E13" t="n">
-        <v>510.3790338701353</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="F13" t="n">
-        <v>510.3790338701353</v>
+        <v>156.2296886241853</v>
       </c>
       <c r="G13" t="n">
-        <v>341.7721888655187</v>
+        <v>156.2296886241853</v>
       </c>
       <c r="H13" t="n">
-        <v>187.5175457652837</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>73.9917951266205</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>175.0397247222299</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>359.8727196230478</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>565.1423203422853</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>770.9656851783891</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>945.0605805669875</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1070.508157165603</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>943.448515305365</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>736.0082305577704</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>510.3790338701353</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>510.3790338701353</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>510.3790338701353</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W13" t="n">
-        <v>510.3790338701353</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X13" t="n">
-        <v>510.3790338701353</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y13" t="n">
-        <v>510.3790338701353</v>
+        <v>303.1196361220957</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1597.994168061634</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>1229.031651121223</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>870.7659525144722</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>484.9776999162281</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>73.9917951266205</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>73.9917951266205</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>73.9917951266205</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>262.6316941403561</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>666.0988071604011</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.912065406599</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.62987638991</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>2477.937544449755</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216832</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.413795556125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>3699.589756331025</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>3699.589756331025</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>3699.589756331025</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>3685.722344231182</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>3432.030640976333</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3100.967753632762</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>2748.199098362647</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>2374.733340101568</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>1984.594008125756</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8126299914996</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>73.9917951266205</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>403.4201994324298</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>907.7817392985476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1461.539392479452</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1660.196134132116</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2209.632142884838</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2633.599911365674</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S15" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.9917951266205</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="C16" t="n">
-        <v>73.9917951266205</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D16" t="n">
-        <v>73.9917951266205</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E16" t="n">
-        <v>73.9917951266205</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F16" t="n">
-        <v>73.9917951266205</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>73.9917951266205</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>73.9917951266205</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>175.03972472223</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>359.8727196230479</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>565.1423203422854</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
-        <v>770.9656851783893</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>945.0605805669878</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1070.508157165603</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>907.2456297917881</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>907.2456297917881</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>618.093453369468</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>363.4089651635811</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W16" t="n">
-        <v>73.9917951266205</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X16" t="n">
-        <v>73.9917951266205</v>
+        <v>965.1414130642022</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.9917951266205</v>
+        <v>744.3488339206721</v>
       </c>
     </row>
     <row r="17">
@@ -5497,43 +5497,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5597,19 +5597,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1096.475226584133</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C19" t="n">
-        <v>927.5390436562259</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D19" t="n">
-        <v>777.4224042438901</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E19" t="n">
-        <v>629.509310661497</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="F19" t="n">
-        <v>482.6193631635866</v>
+        <v>254.6298122655692</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5715,10 +5715,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="X19" t="n">
-        <v>1498.916270557902</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y19" t="n">
-        <v>1278.123691414372</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="20">
@@ -5752,16 +5752,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5770,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5788,7 +5788,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
@@ -5849,10 +5849,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>524.5778132641556</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.21084526296</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="V22" t="n">
-        <v>820.5263570570736</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="W22" t="n">
-        <v>820.5263570570736</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X22" t="n">
-        <v>820.5263570570736</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y22" t="n">
-        <v>706.2262780943953</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="23">
@@ -5971,43 +5971,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6077,16 +6077,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1141.200876391121</v>
+        <v>668.5656656016674</v>
       </c>
       <c r="C25" t="n">
-        <v>972.2646934632137</v>
+        <v>668.5656656016674</v>
       </c>
       <c r="D25" t="n">
-        <v>822.1480540508779</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352015</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W25" t="n">
-        <v>1244.231782352015</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X25" t="n">
-        <v>1244.231782352015</v>
+        <v>1071.006709575437</v>
       </c>
       <c r="Y25" t="n">
-        <v>1244.231782352015</v>
+        <v>850.2141304319072</v>
       </c>
     </row>
     <row r="26">
@@ -6202,55 +6202,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>564.1830073829216</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C28" t="n">
-        <v>395.2468244550147</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>675.007103038344</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>675.007103038344</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>675.007103038344</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X28" t="n">
-        <v>675.007103038344</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y28" t="n">
-        <v>675.007103038344</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6451,16 +6451,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6469,7 +6469,7 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6481,13 +6481,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4347.338425602349</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>4334.202995919604</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>4184.086356507269</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4749.779469576119</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>4749.779469576119</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>4749.779469576119</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>4749.779469576119</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>4749.779469576119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>4749.779469576119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>4528.986890432589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,40 +6679,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6721,28 +6721,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6785,22 +6785,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4503.13917884751</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>4334.202995919603</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>4184.086356507268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4503.13917884751</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>4503.13917884751</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>4503.13917884751</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>4503.13917884751</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>4503.13917884751</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>4503.13917884751</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,31 +6916,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,13 +6955,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095317</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>3158.474758001781</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3465.794891281742</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>3795.657518945775</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4555.115143601279</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4850.224560916993</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>711.072954880832</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C37" t="n">
-        <v>542.1367719529251</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405893</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1341.503549752619</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1341.503549752619</v>
+        <v>1258.27620142486</v>
       </c>
       <c r="V37" t="n">
-        <v>1341.503549752619</v>
+        <v>1003.591713218973</v>
       </c>
       <c r="W37" t="n">
-        <v>1341.503549752619</v>
+        <v>714.1745431820127</v>
       </c>
       <c r="X37" t="n">
-        <v>1113.513998854602</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y37" t="n">
-        <v>892.7214197110717</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="38">
@@ -7162,43 +7162,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4503.139178847511</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>4334.202995919604</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>4184.086356507269</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4549.859459491671</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4549.859459491671</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>4549.859459491671</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>4549.859459491671</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>4549.859459491671</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X40" t="n">
-        <v>4549.859459491671</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y40" t="n">
-        <v>4549.859459491671</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7405,25 +7405,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095316</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L42" t="n">
-        <v>3158.47475800178</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M42" t="n">
-        <v>3465.794891281741</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>3795.657518945774</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>4075.197584164471</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>4555.115143601278</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>804.3537517307267</v>
+        <v>799.6537879979912</v>
       </c>
       <c r="C43" t="n">
-        <v>635.4175688028198</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D43" t="n">
-        <v>485.300929390484</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E43" t="n">
-        <v>337.3878358080909</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F43" t="n">
-        <v>190.4978883101806</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7602,19 +7602,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V43" t="n">
-        <v>986.0022165609664</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W43" t="n">
-        <v>986.0022165609664</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X43" t="n">
-        <v>986.0022165609664</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="Y43" t="n">
-        <v>986.0022165609664</v>
+        <v>799.6537879979912</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>868.4856756861153</v>
+        <v>328.5881531307909</v>
       </c>
       <c r="C46" t="n">
-        <v>699.5494927582084</v>
+        <v>159.651970202884</v>
       </c>
       <c r="D46" t="n">
-        <v>549.4328533458727</v>
+        <v>159.651970202884</v>
       </c>
       <c r="E46" t="n">
-        <v>401.5197597634796</v>
+        <v>159.651970202884</v>
       </c>
       <c r="F46" t="n">
-        <v>401.5197597634796</v>
+        <v>159.651970202884</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W46" t="n">
-        <v>1498.916270557902</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X46" t="n">
-        <v>1270.926719659885</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="Y46" t="n">
-        <v>1050.134140516355</v>
+        <v>510.2366179610307</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451757</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>6.233205181928724</v>
+        <v>20.63789864135491</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>68.29886828945465</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>6.233205181928696</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>378.04072406697</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>96.03744927814711</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208058</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208058</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22561,10 +22561,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22594,19 +22594,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>10.89490413355642</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22761,19 +22761,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.0062774114811</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22801,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>232.381502898648</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,25 +22831,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,13 +22986,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>56.01837628787186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23001,16 +23001,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23083,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>53.30008710312251</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23178,16 +23178,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890122</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23260,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>46.53698281850822</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>90.49135717527561</v>
       </c>
       <c r="I13" t="n">
-        <v>10.87606474714048</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
-        <v>17.6958418817692</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>198.923125136121</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>123.2665578794171</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176918</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677914</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>40.35184357388584</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>181.7163547904683</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>44.27839330891794</v>
+        <v>10.65497486614709</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>39.5290183774822</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>105.4275751790433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>77.83138328065138</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>23.74922365528117</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -24423,16 +24423,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>70.11612548306911</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>48.00368395686547</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>154.2427457127104</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>175.2944832206708</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25365,16 +25365,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>65.70896746115884</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>48.00368395686573</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>133.5789023442188</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>14.45548819888947</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>78.79854367738997</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>74.14557958198181</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>14.14775521075197</v>
+        <v>104.6830385082054</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26076,19 +26076,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>729397.9021790256</v>
+        <v>1020681.761978348</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>729397.9021790256</v>
+        <v>1020681.761978348</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>729397.9021790258</v>
+        <v>1020681.761978348</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>842700.586315056</v>
+        <v>966985.4952322281</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>842700.5863150561</v>
+        <v>966985.4952322281</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>966985.4952322282</v>
+        <v>966985.4952322283</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>966985.4952322282</v>
+        <v>966985.4952322283</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>966985.4952322282</v>
+        <v>966985.4952322283</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>966985.4952322283</v>
+        <v>966985.4952322282</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>966985.4952322283</v>
+        <v>966985.4952322281</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>966985.4952322281</v>
+        <v>966985.4952322283</v>
       </c>
     </row>
     <row r="16">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318067.8710173334</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173334</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="D2" t="n">
-        <v>318067.8710173332</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>371509.2212626557</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="F2" t="n">
-        <v>371509.2212626557</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="G2" t="n">
+        <v>430131.9657114798</v>
+      </c>
+      <c r="H2" t="n">
         <v>430131.9657114797</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>430131.9657114796</v>
+      </c>
+      <c r="J2" t="n">
         <v>430131.9657114798</v>
       </c>
-      <c r="I2" t="n">
-        <v>430131.9657114798</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>430131.9657114797</v>
-      </c>
-      <c r="K2" t="n">
-        <v>430131.9657114799</v>
       </c>
       <c r="L2" t="n">
         <v>430131.9657114798</v>
@@ -26349,13 +26349,13 @@
         <v>430131.9657114798</v>
       </c>
       <c r="N2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114796</v>
       </c>
       <c r="O2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="P2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114796</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>248146.7686188423</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>263762.8892659104</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62453.05588965289</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>69864.88484991119</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35944.74664026682</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>35944.74664026682</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="D4" t="n">
-        <v>35944.74664026682</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>32774.53910638623</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>32774.53910638623</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
@@ -26441,19 +26441,19 @@
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
@@ -26472,16 +26472,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>69171.54328360136</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>69171.54328360136</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26490,7 +26490,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26499,7 +26499,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-390703.8329008874</v>
+        <v>-395744.7611744242</v>
       </c>
       <c r="C6" t="n">
-        <v>199264.046313657</v>
+        <v>194223.1180401202</v>
       </c>
       <c r="D6" t="n">
-        <v>199264.0463136568</v>
+        <v>194223.1180401203</v>
       </c>
       <c r="E6" t="n">
-        <v>21416.37025382587</v>
+        <v>-217293.5335261567</v>
       </c>
       <c r="F6" t="n">
-        <v>269563.1388726681</v>
+        <v>307866.5029507392</v>
       </c>
       <c r="G6" t="n">
-        <v>45078.20494455034</v>
+        <v>307866.5029507392</v>
       </c>
       <c r="H6" t="n">
-        <v>308841.0942104609</v>
+        <v>307866.5029507391</v>
       </c>
       <c r="I6" t="n">
-        <v>308841.0942104608</v>
+        <v>307866.502950739</v>
       </c>
       <c r="J6" t="n">
-        <v>132417.8750178677</v>
+        <v>131443.2837581462</v>
       </c>
       <c r="K6" t="n">
-        <v>308841.0942104609</v>
+        <v>307866.5029507391</v>
       </c>
       <c r="L6" t="n">
-        <v>308841.0942104608</v>
+        <v>307866.5029507391</v>
       </c>
       <c r="M6" t="n">
-        <v>246388.038320808</v>
+        <v>173065.4877169021</v>
       </c>
       <c r="N6" t="n">
-        <v>308841.0942104608</v>
+        <v>307866.502950739</v>
       </c>
       <c r="O6" t="n">
-        <v>238976.2093605496</v>
+        <v>307866.502950739</v>
       </c>
       <c r="P6" t="n">
-        <v>308841.0942104608</v>
+        <v>307866.502950739</v>
       </c>
     </row>
   </sheetData>
@@ -26740,16 +26740,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380634</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380635</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26758,28 +26758,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26792,16 +26792,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>924.8974390827563</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>924.8974390827563</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215.7324361209765</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>236.9063051160367</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>250.6101663282003</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>290.3162041708168</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282005</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708166</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282003</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708168</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>65.99072603171135</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1.009001502131831</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>117.4308562164688</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>321.4685793061302</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.806844538051642</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31518,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31533,28 +31533,28 @@
         <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472037</v>
@@ -31594,13 +31594,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
         <v>76.7639270839648</v>
@@ -31615,7 +31615,7 @@
         <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923048</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31676,16 +31676,16 @@
         <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,19 +31694,19 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.385833569198243</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>24.43391804055151</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>91.97984867651535</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>202.4946418937396</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>303.4869768779012</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>376.502430971252</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>418.9314987074812</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>425.7102483359658</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>401.9861157822507</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>343.0858495426691</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>257.6431848457569</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411493</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>54.36718245810501</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>10.44398644916531</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.276533498840363</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>12.32862615985298</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>43.95082441182829</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>120.604421484738</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>206.1321659070423</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>277.1701353512814</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>323.4444746842445</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>332.0050874900643</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>303.7197925947068</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>243.7619099671567</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>162.9483813607453</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>79.25705355080781</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>23.7110498578462</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308302</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08398246702897126</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.070202803888311</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>9.51507583820699</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>32.18391704784121</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>75.66333823490358</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>124.3381075790237</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>159.1099695889949</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>167.7591540676922</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>163.7702163441086</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>151.2683017714133</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>129.4361645720917</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.61489115104756</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>48.12020970937804</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>18.65071613685356</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>4.572684707522781</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05837469839390793</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.385833569198244</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055151</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651536</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937396</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779013</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712521</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074814</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>425.7102483359659</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822508</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426692</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.643184845757</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411493</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810503</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916532</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840363</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>12.32862615985298</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>43.95082441182829</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>120.604421484738</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070423</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512815</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842445</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>332.0050874900644</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947069</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671567</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607453</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080783</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>23.7110498578462</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308303</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08398246702897129</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888311</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838206991</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784122</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490359</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>124.3381075790238</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>159.1099695889949</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676922</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441087</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714133</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>129.4361645720917</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.61489115104759</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937805</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685356</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522782</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390794</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
         <v>478.8956552492238</v>
@@ -35190,7 +35190,7 @@
         <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.997506289869</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624592</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713858</v>
@@ -35263,10 +35263,10 @@
         <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.545352539127</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>407.5425384040854</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517152</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>638.098798973041</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513591</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233093</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>433.6515619588822</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.6524856312121</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>62.54807759626156</v>
       </c>
       <c r="K12" t="n">
-        <v>68.29072693268327</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>206.9146238608619</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>647.015504512226</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>680.0057497502846</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>554.9858674269919</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>428.2502711927636</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.96660727472374</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>102.0686157531409</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>186.699994849311</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>207.3430310295328</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>207.9023887233372</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>175.853429685453</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>126.7147238369851</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.452847899353173</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391271</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>407.5425384040855</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517153</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730411</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513591</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233095</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588823</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312122</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>332.7559639452619</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748665</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>559.3511648291963</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>200.6633754067311</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269919</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>428.2502711927636</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.96660727472377</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0686157531409</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493111</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295328</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233373</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>175.853429685453</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369852</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353202</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36217,13 +36217,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>462.3874039146953</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,25 +37153,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523304</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1230991.550695067</v>
+        <v>1248060.423160248</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>2990033.635411731</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11336344.66186955</v>
+        <v>10495671.86531855</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>347.7934439890836</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>48.9017984615835</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250842</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>94.63926978364066</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.19095768640517</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.50046002839245</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>133.2735864417107</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>129.0246247964037</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>60.4617907661316</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>394.6629993089223</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,10 +1293,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>116.1430940756185</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>25.31590541686263</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273781</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>58.42247119226052</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>147.0147829826555</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>108.358868154479</v>
       </c>
       <c r="X16" t="n">
-        <v>43.99330059856885</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274077</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>39.11561436815781</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>155.8385935972305</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>246.7083340210951</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>85.87468692396561</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>124.8662493629312</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>179.9319187438042</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>139.8084418793349</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>238.2336684417116</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>188.4590648403943</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>204.1291651532053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>88.44827742123786</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>90.48077270931398</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>61.8105299551722</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1309.714918859356</v>
+        <v>907.0907985422234</v>
       </c>
       <c r="C2" t="n">
-        <v>1309.714918859356</v>
+        <v>907.0907985422234</v>
       </c>
       <c r="D2" t="n">
-        <v>951.4492202526051</v>
+        <v>907.0907985422234</v>
       </c>
       <c r="E2" t="n">
-        <v>565.6609676543608</v>
+        <v>521.3025459439791</v>
       </c>
       <c r="F2" t="n">
-        <v>558.7154669051573</v>
+        <v>521.3025459439791</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>103.338737842166</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>1683.829970582157</v>
       </c>
       <c r="Y2" t="n">
-        <v>1309.714918859356</v>
+        <v>1293.690638606345</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600561</v>
+        <v>149.5382038240419</v>
       </c>
       <c r="C4" t="n">
-        <v>698.7120650600561</v>
+        <v>149.5382038240419</v>
       </c>
       <c r="D4" t="n">
-        <v>698.7120650600561</v>
+        <v>149.5382038240419</v>
       </c>
       <c r="E4" t="n">
-        <v>550.798971477663</v>
+        <v>149.5382038240419</v>
       </c>
       <c r="F4" t="n">
-        <v>403.9090239797526</v>
+        <v>149.5382038240419</v>
       </c>
       <c r="G4" t="n">
-        <v>234.9092237180851</v>
+        <v>149.5382038240419</v>
       </c>
       <c r="H4" t="n">
-        <v>234.9092237180851</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>98.58031281673331</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>149.5382038240419</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>149.5382038240419</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>149.5382038240419</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.717708340416</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C5" t="n">
-        <v>1257.755191400005</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D5" t="n">
-        <v>899.4894927932542</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>513.7012401950099</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>102.7153354054023</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>88.7919313439932</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>88.7919313439932</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2331.32312957833</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2000.260242234759</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>2000.260242234759</v>
       </c>
       <c r="X5" t="n">
-        <v>2013.317548404538</v>
+        <v>2000.260242234759</v>
       </c>
       <c r="Y5" t="n">
-        <v>2013.317548404538</v>
+        <v>1610.120910258947</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,25 +4646,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036446</v>
@@ -4734,7 +4734,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4743,34 +4743,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035247</v>
+        <v>1392.984777118936</v>
       </c>
       <c r="C8" t="n">
-        <v>494.150101163113</v>
+        <v>1024.022260178525</v>
       </c>
       <c r="D8" t="n">
-        <v>135.8844025563625</v>
+        <v>1024.022260178525</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>1024.022260178525</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1779.584617183058</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598709</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>319.1723320447965</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>319.1723320447965</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>319.1723320447965</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>171.2592384624033</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>171.2592384624033</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4980,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>702.55736257324</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U10" t="n">
-        <v>702.55736257324</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V10" t="n">
-        <v>702.55736257324</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W10" t="n">
-        <v>702.55736257324</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X10" t="n">
-        <v>702.55736257324</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>500.8207968750362</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.3213845506</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610188</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003438</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405193</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155859</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.193237080544</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822432</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J12" t="n">
-        <v>159.1396882805848</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>570.0299571250974</v>
+        <v>549.5984374701559</v>
       </c>
       <c r="L12" t="n">
-        <v>816.7950850315615</v>
+        <v>796.3635653766198</v>
       </c>
       <c r="M12" t="n">
-        <v>1124.115218311523</v>
+        <v>1103.683698656581</v>
       </c>
       <c r="N12" t="n">
-        <v>1453.977845975556</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2187.635342139429</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>303.1196361220957</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="C13" t="n">
-        <v>303.1196361220957</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D13" t="n">
-        <v>303.1196361220957</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>303.1196361220957</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>156.2296886241853</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>156.2296886241853</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570736</v>
+        <v>1239.341386329166</v>
       </c>
       <c r="W13" t="n">
-        <v>531.109187020113</v>
+        <v>949.9242162922058</v>
       </c>
       <c r="X13" t="n">
-        <v>303.1196361220957</v>
+        <v>949.9242162922058</v>
       </c>
       <c r="Y13" t="n">
-        <v>303.1196361220957</v>
+        <v>729.1316371486756</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,28 +5263,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5296,13 +5296,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>233.78524341101</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555226</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619865</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441948</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.623401105981</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>562.7003690904323</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C16" t="n">
-        <v>562.7003690904323</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D16" t="n">
-        <v>562.7003690904323</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>562.7003690904323</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>1298.996260473455</v>
+        <v>820.5263570570734</v>
       </c>
       <c r="W16" t="n">
-        <v>1009.579090436494</v>
+        <v>711.072954880832</v>
       </c>
       <c r="X16" t="n">
-        <v>965.1414130642022</v>
+        <v>711.072954880832</v>
       </c>
       <c r="Y16" t="n">
-        <v>744.3488339206721</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="17">
@@ -5497,43 +5497,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>868.4856756861153</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>699.5494927582084</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>549.4328533458727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>401.5197597634796</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>254.6298122655692</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W19" t="n">
-        <v>1498.916270557902</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="X19" t="n">
-        <v>1270.926719659885</v>
+        <v>357.5203921878137</v>
       </c>
       <c r="Y19" t="n">
-        <v>1050.134140516355</v>
+        <v>136.7278130442836</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,40 +5737,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5794,10 +5794,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>714.9354044297402</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V22" t="n">
-        <v>714.9354044297402</v>
+        <v>788.1850051187861</v>
       </c>
       <c r="W22" t="n">
-        <v>714.9354044297402</v>
+        <v>788.1850051187861</v>
       </c>
       <c r="X22" t="n">
-        <v>486.9458535317228</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="Y22" t="n">
-        <v>266.1532743881928</v>
+        <v>560.1954542207687</v>
       </c>
     </row>
     <row r="23">
@@ -5992,19 +5992,19 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6083,10 +6083,10 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>668.5656656016674</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C25" t="n">
-        <v>668.5656656016674</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D25" t="n">
-        <v>542.438140992646</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>394.5250474102529</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>982.3063390367042</v>
       </c>
       <c r="V25" t="n">
-        <v>1298.996260473455</v>
+        <v>982.3063390367042</v>
       </c>
       <c r="W25" t="n">
-        <v>1298.996260473455</v>
+        <v>692.8891689997437</v>
       </c>
       <c r="X25" t="n">
-        <v>1071.006709575437</v>
+        <v>464.8996181017263</v>
       </c>
       <c r="Y25" t="n">
-        <v>850.2141304319072</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6445,37 +6445,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6648,22 +6648,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y31" t="n">
         <v>97.21709146028584</v>
@@ -6679,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6688,31 +6688,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6727,22 +6727,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6785,16 +6785,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>557.490562163493</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>388.5543792355861</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>238.4377398232504</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>238.4377398232504</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>238.4377398232504</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>959.9316061372629</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>739.1390269937327</v>
       </c>
     </row>
     <row r="35">
@@ -6916,40 +6916,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1258.27620142486</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1003.591713218973</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>714.1745431820127</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>486.1849922839954</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7162,25 +7162,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7201,10 +7201,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1308.553578799928</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W40" t="n">
-        <v>531.3977182706318</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X40" t="n">
-        <v>303.4081673726145</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="41">
@@ -7399,13 +7399,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>799.6537879979912</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="C43" t="n">
-        <v>710.3120936331045</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D43" t="n">
         <v>560.1954542207687</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1275.130855347408</v>
+        <v>983.8161253545625</v>
       </c>
       <c r="V43" t="n">
-        <v>1020.446367141521</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="W43" t="n">
-        <v>1020.446367141521</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="X43" t="n">
-        <v>1020.446367141521</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="Y43" t="n">
-        <v>799.6537879979912</v>
+        <v>729.1316371486756</v>
       </c>
     </row>
     <row r="44">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>328.5881531307909</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>159.651970202884</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>159.651970202884</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>159.651970202884</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>159.651970202884</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347408</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>1020.446367141521</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>731.0291971045608</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>731.0291971045608</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>510.2366179610307</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>20.63789864135491</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>145.2351313103807</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814813</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9731,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -22549,25 +22549,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>275.0209743027737</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,10 +22597,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22609,7 +22609,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>61.53161905815446</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22792,7 +22792,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22801,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,19 +22837,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>117.9505810665786</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,16 +22986,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>83.12091415361525</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23004,13 +23004,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23026,19 +23026,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>12.2130464327891</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23080,13 +23080,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23181,28 +23181,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>51.16670818343242</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2.984279490192421e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>90.49135717527561</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>105.1228603411725</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23706,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>178.164130182112</v>
       </c>
       <c r="X16" t="n">
-        <v>181.7163547904683</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>140.7163658137795</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>10.65497486614709</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>39.5290183774822</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>166.2629563998624</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>23.74922365528117</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>106.3054336547731</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>48.00368395686547</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>26.68512658404271</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>48.00368395686573</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>33.08849621799493</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>14.45548819888947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>78.79854367738997</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>195.7565796892634</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>104.6830385082054</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1020681.761978348</v>
+        <v>729397.9021790257</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1020681.761978348</v>
+        <v>729397.9021790257</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1020681.761978348</v>
+        <v>729397.9021790256</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>966985.4952322281</v>
+        <v>966985.495232228</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>966985.4952322281</v>
+        <v>966985.4952322282</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>966985.4952322282</v>
+        <v>966985.4952322283</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>966985.4952322283</v>
+        <v>966985.4952322282</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>966985.4952322281</v>
+        <v>966985.4952322283</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>966985.4952322283</v>
+        <v>966985.4952322282</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>966985.4952322282</v>
+        <v>966985.4952322283</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>966985.4952322283</v>
+        <v>966985.4952322282</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253559</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253559</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253559</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="E2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114795</v>
       </c>
       <c r="F2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114796</v>
       </c>
       <c r="G2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="H2" t="n">
+        <v>430131.9657114798</v>
+      </c>
+      <c r="I2" t="n">
         <v>430131.9657114797</v>
-      </c>
-      <c r="I2" t="n">
-        <v>430131.9657114796</v>
       </c>
       <c r="J2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="K2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="L2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="M2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="N2" t="n">
+        <v>430131.9657114797</v>
+      </c>
+      <c r="O2" t="n">
         <v>430131.9657114796</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>430131.9657114797</v>
-      </c>
-      <c r="P2" t="n">
-        <v>430131.9657114796</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145447</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174490.7773218262</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218261</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218262</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>82859.07806340948</v>
+      </c>
+      <c r="C5" t="n">
+        <v>82859.07806340948</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
-      <c r="C5" t="n">
-        <v>82859.07806340947</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82859.07806340948</v>
-      </c>
       <c r="E5" t="n">
+        <v>91987.32594871659</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871661</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-395744.7611744242</v>
+        <v>-391310.6742754694</v>
       </c>
       <c r="C6" t="n">
-        <v>194223.1180401202</v>
+        <v>198657.2049390752</v>
       </c>
       <c r="D6" t="n">
-        <v>194223.1180401203</v>
+        <v>198657.2049390754</v>
       </c>
       <c r="E6" t="n">
-        <v>-217293.5335261567</v>
+        <v>-216416.4013924073</v>
       </c>
       <c r="F6" t="n">
-        <v>307866.5029507392</v>
+        <v>308743.6350844885</v>
       </c>
       <c r="G6" t="n">
-        <v>307866.5029507392</v>
+        <v>308743.6350844885</v>
       </c>
       <c r="H6" t="n">
-        <v>307866.5029507391</v>
+        <v>308743.6350844887</v>
       </c>
       <c r="I6" t="n">
-        <v>307866.502950739</v>
+        <v>308743.6350844886</v>
       </c>
       <c r="J6" t="n">
-        <v>131443.2837581462</v>
+        <v>132320.4158918957</v>
       </c>
       <c r="K6" t="n">
-        <v>307866.5029507391</v>
+        <v>308743.6350844886</v>
       </c>
       <c r="L6" t="n">
-        <v>307866.5029507391</v>
+        <v>308743.6350844886</v>
       </c>
       <c r="M6" t="n">
-        <v>173065.4877169021</v>
+        <v>173942.6198506516</v>
       </c>
       <c r="N6" t="n">
-        <v>307866.502950739</v>
+        <v>308743.6350844885</v>
       </c>
       <c r="O6" t="n">
-        <v>307866.502950739</v>
+        <v>308743.6350844885</v>
       </c>
       <c r="P6" t="n">
-        <v>307866.502950739</v>
+        <v>308743.6350844885</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170868</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170868</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.926370499017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>65.99072603171135</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.009001502131831</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>117.4308562164688</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060686</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>321.4685793061302</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.806844538051642</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,43 +31047,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,25 +31223,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,7 +31284,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31293,34 +31293,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,40 +31357,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31399,7 +31399,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,46 +31992,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,43 +32071,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34941,22 +34941,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624592</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>62.54807759626156</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>352.3285462419052</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330548</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36451,13 +36451,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>462.3874039146953</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
